--- a/Testing Results & functionality repot/résultats des tests.xlsx
+++ b/Testing Results & functionality repot/résultats des tests.xlsx
@@ -742,6 +742,147 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -750,147 +891,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1201,7 +1201,7 @@
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="AE20" sqref="AE20"/>
+      <selection pane="bottomLeft" activeCell="N42" sqref="N42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1377,13 +1377,13 @@
       <c r="AC7" s="16"/>
     </row>
     <row r="8" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
       <c r="G8" s="14" t="s">
         <v>15</v>
       </c>
@@ -1394,13 +1394,13 @@
         <v>17</v>
       </c>
       <c r="J8" s="15"/>
-      <c r="L8" s="26" t="s">
+      <c r="L8" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="28"/>
+      <c r="M8" s="74"/>
+      <c r="N8" s="74"/>
+      <c r="O8" s="74"/>
+      <c r="P8" s="75"/>
       <c r="Q8" s="14" t="s">
         <v>15</v>
       </c>
@@ -1411,13 +1411,13 @@
         <v>17</v>
       </c>
       <c r="T8" s="15"/>
-      <c r="V8" s="26" t="s">
+      <c r="V8" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="W8" s="27"/>
-      <c r="X8" s="27"/>
-      <c r="Y8" s="27"/>
-      <c r="Z8" s="28"/>
+      <c r="W8" s="74"/>
+      <c r="X8" s="74"/>
+      <c r="Y8" s="74"/>
+      <c r="Z8" s="75"/>
       <c r="AA8" s="14" t="s">
         <v>15</v>
       </c>
@@ -1433,13 +1433,13 @@
       <c r="A9">
         <v>1</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
       <c r="G9" s="11">
         <v>5984</v>
       </c>
@@ -1449,19 +1449,19 @@
       <c r="I9" s="5">
         <v>5885</v>
       </c>
-      <c r="J9" s="73" t="s">
+      <c r="J9" s="43" t="s">
         <v>44</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
-      <c r="L9" s="29" t="s">
+      <c r="L9" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="31"/>
+      <c r="M9" s="66"/>
+      <c r="N9" s="66"/>
+      <c r="O9" s="66"/>
+      <c r="P9" s="67"/>
       <c r="Q9" s="5">
         <v>6156</v>
       </c>
@@ -1471,19 +1471,19 @@
       <c r="S9" s="11">
         <v>6164</v>
       </c>
-      <c r="T9" s="73" t="s">
+      <c r="T9" s="43" t="s">
         <v>44</v>
       </c>
       <c r="U9">
         <v>1</v>
       </c>
-      <c r="V9" s="29" t="s">
+      <c r="V9" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="W9" s="30"/>
-      <c r="X9" s="30"/>
-      <c r="Y9" s="30"/>
-      <c r="Z9" s="31"/>
+      <c r="W9" s="66"/>
+      <c r="X9" s="66"/>
+      <c r="Y9" s="66"/>
+      <c r="Z9" s="67"/>
       <c r="AA9" s="13">
         <v>5486</v>
       </c>
@@ -1493,7 +1493,7 @@
       <c r="AC9" s="13">
         <v>5724</v>
       </c>
-      <c r="AD9" s="73" t="s">
+      <c r="AD9" s="43" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1501,13 +1501,13 @@
       <c r="A10">
         <v>2</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
       <c r="G10" s="4">
         <v>5284</v>
       </c>
@@ -1517,17 +1517,17 @@
       <c r="I10" s="8">
         <v>6016</v>
       </c>
-      <c r="J10" s="74"/>
+      <c r="J10" s="44"/>
       <c r="K10">
         <v>2</v>
       </c>
-      <c r="L10" s="29" t="s">
+      <c r="L10" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="31"/>
+      <c r="M10" s="66"/>
+      <c r="N10" s="66"/>
+      <c r="O10" s="66"/>
+      <c r="P10" s="67"/>
       <c r="Q10" s="4">
         <v>6044</v>
       </c>
@@ -1537,17 +1537,17 @@
       <c r="S10" s="8">
         <v>6216</v>
       </c>
-      <c r="T10" s="74"/>
+      <c r="T10" s="44"/>
       <c r="U10">
         <v>2</v>
       </c>
-      <c r="V10" s="29" t="s">
+      <c r="V10" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="W10" s="30"/>
-      <c r="X10" s="30"/>
-      <c r="Y10" s="30"/>
-      <c r="Z10" s="31"/>
+      <c r="W10" s="66"/>
+      <c r="X10" s="66"/>
+      <c r="Y10" s="66"/>
+      <c r="Z10" s="67"/>
       <c r="AA10" s="9">
         <v>664</v>
       </c>
@@ -1557,19 +1557,19 @@
       <c r="AC10" s="8">
         <v>6202</v>
       </c>
-      <c r="AD10" s="74"/>
+      <c r="AD10" s="44"/>
     </row>
     <row r="11" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>3</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
       <c r="G11" s="4">
         <v>6018</v>
       </c>
@@ -1579,17 +1579,17 @@
       <c r="I11" s="4">
         <v>4617</v>
       </c>
-      <c r="J11" s="74"/>
+      <c r="J11" s="44"/>
       <c r="K11">
         <v>3</v>
       </c>
-      <c r="L11" s="29" t="s">
+      <c r="L11" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="31"/>
+      <c r="M11" s="66"/>
+      <c r="N11" s="66"/>
+      <c r="O11" s="66"/>
+      <c r="P11" s="67"/>
       <c r="Q11" s="4">
         <v>5504</v>
       </c>
@@ -1599,17 +1599,17 @@
       <c r="S11" s="4">
         <v>5971</v>
       </c>
-      <c r="T11" s="74"/>
+      <c r="T11" s="44"/>
       <c r="U11">
         <v>3</v>
       </c>
-      <c r="V11" s="29" t="s">
+      <c r="V11" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="W11" s="30"/>
-      <c r="X11" s="30"/>
-      <c r="Y11" s="30"/>
-      <c r="Z11" s="31"/>
+      <c r="W11" s="66"/>
+      <c r="X11" s="66"/>
+      <c r="Y11" s="66"/>
+      <c r="Z11" s="67"/>
       <c r="AA11" s="8">
         <v>6100</v>
       </c>
@@ -1619,19 +1619,19 @@
       <c r="AC11" s="9">
         <v>6009</v>
       </c>
-      <c r="AD11" s="74"/>
+      <c r="AD11" s="44"/>
     </row>
     <row r="12" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>4</v>
       </c>
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
       <c r="G12" s="10">
         <v>5905</v>
       </c>
@@ -1641,17 +1641,17 @@
       <c r="I12" s="6">
         <v>4853</v>
       </c>
-      <c r="J12" s="75"/>
+      <c r="J12" s="45"/>
       <c r="K12">
         <v>4</v>
       </c>
-      <c r="L12" s="32" t="s">
+      <c r="L12" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="33"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="33"/>
-      <c r="P12" s="34"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="69"/>
+      <c r="O12" s="69"/>
+      <c r="P12" s="70"/>
       <c r="Q12" s="6">
         <v>6071</v>
       </c>
@@ -1661,17 +1661,17 @@
       <c r="S12" s="6">
         <v>6269</v>
       </c>
-      <c r="T12" s="75"/>
+      <c r="T12" s="45"/>
       <c r="U12">
         <v>4</v>
       </c>
-      <c r="V12" s="32" t="s">
+      <c r="V12" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="W12" s="33"/>
-      <c r="X12" s="33"/>
-      <c r="Y12" s="33"/>
-      <c r="Z12" s="34"/>
+      <c r="W12" s="69"/>
+      <c r="X12" s="69"/>
+      <c r="Y12" s="69"/>
+      <c r="Z12" s="70"/>
       <c r="AA12" s="10">
         <v>6262</v>
       </c>
@@ -1681,60 +1681,60 @@
       <c r="AC12" s="12">
         <v>5999</v>
       </c>
-      <c r="AD12" s="75"/>
+      <c r="AD12" s="45"/>
     </row>
     <row r="13" spans="1:30" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="53" t="s">
+      <c r="B13" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="58" t="s">
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="59"/>
-      <c r="J13" s="60"/>
-      <c r="L13" s="53" t="s">
+      <c r="I13" s="54"/>
+      <c r="J13" s="55"/>
+      <c r="L13" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="M13" s="54"/>
-      <c r="N13" s="54"/>
-      <c r="O13" s="54"/>
-      <c r="P13" s="54"/>
-      <c r="Q13" s="55"/>
-      <c r="R13" s="58" t="s">
+      <c r="M13" s="39"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="S13" s="59"/>
-      <c r="T13" s="60"/>
-      <c r="V13" s="53" t="s">
+      <c r="S13" s="54"/>
+      <c r="T13" s="55"/>
+      <c r="V13" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="W13" s="54"/>
-      <c r="X13" s="54"/>
-      <c r="Y13" s="54"/>
-      <c r="Z13" s="54"/>
-      <c r="AA13" s="55"/>
-      <c r="AB13" s="58" t="s">
+      <c r="W13" s="39"/>
+      <c r="X13" s="39"/>
+      <c r="Y13" s="39"/>
+      <c r="Z13" s="39"/>
+      <c r="AA13" s="40"/>
+      <c r="AB13" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="AC13" s="59"/>
-      <c r="AD13" s="60"/>
+      <c r="AC13" s="54"/>
+      <c r="AD13" s="55"/>
     </row>
     <row r="14" spans="1:30" ht="16" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1</v>
       </c>
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
       <c r="G14" s="11">
         <v>6241</v>
       </c>
@@ -1744,19 +1744,19 @@
       <c r="I14" s="5">
         <v>5336</v>
       </c>
-      <c r="J14" s="73" t="s">
+      <c r="J14" s="43" t="s">
         <v>44</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
-      <c r="L14" s="56" t="s">
+      <c r="L14" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="M14" s="57"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="57"/>
-      <c r="P14" s="57"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="42"/>
       <c r="Q14" s="5">
         <v>5606</v>
       </c>
@@ -1766,19 +1766,19 @@
       <c r="S14" s="5">
         <v>5870</v>
       </c>
-      <c r="T14" s="73" t="s">
+      <c r="T14" s="43" t="s">
         <v>44</v>
       </c>
       <c r="U14">
         <v>1</v>
       </c>
-      <c r="V14" s="35" t="s">
+      <c r="V14" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="W14" s="36"/>
-      <c r="X14" s="36"/>
-      <c r="Y14" s="36"/>
-      <c r="Z14" s="36"/>
+      <c r="W14" s="64"/>
+      <c r="X14" s="64"/>
+      <c r="Y14" s="64"/>
+      <c r="Z14" s="64"/>
       <c r="AA14" s="11">
         <v>6614</v>
       </c>
@@ -1788,7 +1788,7 @@
       <c r="AC14" s="13">
         <v>6512</v>
       </c>
-      <c r="AD14" s="73" t="s">
+      <c r="AD14" s="43" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1796,13 +1796,13 @@
       <c r="A15">
         <v>2</v>
       </c>
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
       <c r="G15" s="4">
         <v>6227</v>
       </c>
@@ -1812,17 +1812,17 @@
       <c r="I15" s="8">
         <v>6286</v>
       </c>
-      <c r="J15" s="74"/>
+      <c r="J15" s="44"/>
       <c r="K15">
         <v>2</v>
       </c>
-      <c r="L15" s="45" t="s">
+      <c r="L15" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="M15" s="46"/>
-      <c r="N15" s="46"/>
-      <c r="O15" s="46"/>
-      <c r="P15" s="46"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="49"/>
       <c r="Q15" s="4">
         <v>5754</v>
       </c>
@@ -1832,17 +1832,17 @@
       <c r="S15" s="8">
         <v>5886</v>
       </c>
-      <c r="T15" s="74"/>
+      <c r="T15" s="44"/>
       <c r="U15">
         <v>2</v>
       </c>
-      <c r="V15" s="37" t="s">
+      <c r="V15" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="W15" s="38"/>
-      <c r="X15" s="38"/>
-      <c r="Y15" s="38"/>
-      <c r="Z15" s="38"/>
+      <c r="W15" s="60"/>
+      <c r="X15" s="60"/>
+      <c r="Y15" s="60"/>
+      <c r="Z15" s="60"/>
       <c r="AA15" s="9">
         <v>5620</v>
       </c>
@@ -1852,19 +1852,19 @@
       <c r="AC15" s="8">
         <v>6568</v>
       </c>
-      <c r="AD15" s="74"/>
+      <c r="AD15" s="44"/>
     </row>
     <row r="16" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>3</v>
       </c>
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
       <c r="G16" s="8">
         <v>6283</v>
       </c>
@@ -1874,17 +1874,17 @@
       <c r="I16" s="4">
         <v>4790</v>
       </c>
-      <c r="J16" s="74"/>
+      <c r="J16" s="44"/>
       <c r="K16">
         <v>3</v>
       </c>
-      <c r="L16" s="45" t="s">
+      <c r="L16" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="M16" s="46"/>
-      <c r="N16" s="46"/>
-      <c r="O16" s="46"/>
-      <c r="P16" s="46"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="49"/>
       <c r="Q16" s="8">
         <v>5821</v>
       </c>
@@ -1894,17 +1894,17 @@
       <c r="S16" s="4">
         <v>4726</v>
       </c>
-      <c r="T16" s="74"/>
+      <c r="T16" s="44"/>
       <c r="U16">
         <v>3</v>
       </c>
-      <c r="V16" s="37" t="s">
+      <c r="V16" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="W16" s="38"/>
-      <c r="X16" s="38"/>
-      <c r="Y16" s="38"/>
-      <c r="Z16" s="38"/>
+      <c r="W16" s="60"/>
+      <c r="X16" s="60"/>
+      <c r="Y16" s="60"/>
+      <c r="Z16" s="60"/>
       <c r="AA16" s="9">
         <v>6570</v>
       </c>
@@ -1914,19 +1914,19 @@
       <c r="AC16" s="8">
         <v>6572</v>
       </c>
-      <c r="AD16" s="74"/>
+      <c r="AD16" s="44"/>
     </row>
     <row r="17" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>4</v>
       </c>
-      <c r="B17" s="49" t="s">
+      <c r="B17" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
       <c r="G17" s="6">
         <v>5763</v>
       </c>
@@ -1936,17 +1936,17 @@
       <c r="I17" s="6">
         <v>6279</v>
       </c>
-      <c r="J17" s="75"/>
+      <c r="J17" s="45"/>
       <c r="K17">
         <v>4</v>
       </c>
-      <c r="L17" s="47" t="s">
+      <c r="L17" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="M17" s="48"/>
-      <c r="N17" s="48"/>
-      <c r="O17" s="48"/>
-      <c r="P17" s="48"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="32"/>
       <c r="Q17" s="10">
         <v>5939</v>
       </c>
@@ -1956,17 +1956,17 @@
       <c r="S17" s="6">
         <v>4536</v>
       </c>
-      <c r="T17" s="75"/>
+      <c r="T17" s="45"/>
       <c r="U17">
         <v>4</v>
       </c>
-      <c r="V17" s="41" t="s">
+      <c r="V17" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="W17" s="42"/>
-      <c r="X17" s="42"/>
-      <c r="Y17" s="42"/>
-      <c r="Z17" s="42"/>
+      <c r="W17" s="62"/>
+      <c r="X17" s="62"/>
+      <c r="Y17" s="62"/>
+      <c r="Z17" s="62"/>
       <c r="AA17" s="12">
         <v>5184</v>
       </c>
@@ -1976,60 +1976,60 @@
       <c r="AC17" s="10">
         <v>6491</v>
       </c>
-      <c r="AD17" s="75"/>
+      <c r="AD17" s="45"/>
     </row>
     <row r="18" spans="1:30" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="53" t="s">
+      <c r="B18" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="58" t="s">
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="I18" s="59"/>
-      <c r="J18" s="60"/>
-      <c r="L18" s="53" t="s">
+      <c r="I18" s="54"/>
+      <c r="J18" s="55"/>
+      <c r="L18" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="M18" s="54"/>
-      <c r="N18" s="54"/>
-      <c r="O18" s="54"/>
-      <c r="P18" s="55"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="39"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="40"/>
       <c r="Q18" s="7"/>
-      <c r="R18" s="58" t="s">
+      <c r="R18" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="S18" s="59"/>
-      <c r="T18" s="60"/>
-      <c r="V18" s="53" t="s">
+      <c r="S18" s="54"/>
+      <c r="T18" s="55"/>
+      <c r="V18" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="W18" s="54"/>
-      <c r="X18" s="54"/>
-      <c r="Y18" s="54"/>
-      <c r="Z18" s="54"/>
-      <c r="AA18" s="55"/>
-      <c r="AB18" s="58" t="s">
+      <c r="W18" s="39"/>
+      <c r="X18" s="39"/>
+      <c r="Y18" s="39"/>
+      <c r="Z18" s="39"/>
+      <c r="AA18" s="40"/>
+      <c r="AB18" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="AC18" s="59"/>
-      <c r="AD18" s="60"/>
+      <c r="AC18" s="54"/>
+      <c r="AD18" s="55"/>
     </row>
     <row r="19" spans="1:30" ht="16" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>1</v>
       </c>
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
       <c r="G19" s="11">
         <v>5925</v>
       </c>
@@ -2039,19 +2039,19 @@
       <c r="I19" s="5">
         <v>4489</v>
       </c>
-      <c r="J19" s="73" t="s">
+      <c r="J19" s="43" t="s">
         <v>44</v>
       </c>
       <c r="K19">
         <v>1</v>
       </c>
-      <c r="L19" s="56" t="s">
+      <c r="L19" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="M19" s="57"/>
-      <c r="N19" s="57"/>
-      <c r="O19" s="57"/>
-      <c r="P19" s="57"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="42"/>
       <c r="Q19" s="11">
         <v>5756</v>
       </c>
@@ -2061,19 +2061,19 @@
       <c r="S19" s="5">
         <v>5700</v>
       </c>
-      <c r="T19" s="73" t="s">
+      <c r="T19" s="43" t="s">
         <v>44</v>
       </c>
       <c r="U19">
         <v>1</v>
       </c>
-      <c r="V19" s="35" t="s">
+      <c r="V19" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="W19" s="36"/>
-      <c r="X19" s="36"/>
-      <c r="Y19" s="36"/>
-      <c r="Z19" s="36"/>
+      <c r="W19" s="64"/>
+      <c r="X19" s="64"/>
+      <c r="Y19" s="64"/>
+      <c r="Z19" s="64"/>
       <c r="AA19" s="11">
         <v>6424</v>
       </c>
@@ -2083,7 +2083,7 @@
       <c r="AC19" s="13">
         <v>6133</v>
       </c>
-      <c r="AD19" s="73" t="s">
+      <c r="AD19" s="43" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2091,13 +2091,13 @@
       <c r="A20">
         <v>2</v>
       </c>
-      <c r="B20" s="39" t="s">
+      <c r="B20" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
       <c r="G20" s="8">
         <v>6102</v>
       </c>
@@ -2107,17 +2107,17 @@
       <c r="I20" s="4">
         <v>6033</v>
       </c>
-      <c r="J20" s="74"/>
+      <c r="J20" s="44"/>
       <c r="K20">
         <v>2</v>
       </c>
-      <c r="L20" s="45" t="s">
+      <c r="L20" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="M20" s="46"/>
-      <c r="N20" s="46"/>
-      <c r="O20" s="46"/>
-      <c r="P20" s="46"/>
+      <c r="M20" s="49"/>
+      <c r="N20" s="49"/>
+      <c r="O20" s="49"/>
+      <c r="P20" s="49"/>
       <c r="Q20" s="8">
         <v>5751</v>
       </c>
@@ -2127,17 +2127,17 @@
       <c r="S20" s="4">
         <v>4141</v>
       </c>
-      <c r="T20" s="74"/>
+      <c r="T20" s="44"/>
       <c r="U20">
         <v>2</v>
       </c>
-      <c r="V20" s="37" t="s">
+      <c r="V20" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="W20" s="38"/>
-      <c r="X20" s="38"/>
-      <c r="Y20" s="38"/>
-      <c r="Z20" s="38"/>
+      <c r="W20" s="60"/>
+      <c r="X20" s="60"/>
+      <c r="Y20" s="60"/>
+      <c r="Z20" s="60"/>
       <c r="AA20" s="8">
         <v>6387</v>
       </c>
@@ -2147,19 +2147,19 @@
       <c r="AC20" s="9">
         <v>6215</v>
       </c>
-      <c r="AD20" s="74"/>
+      <c r="AD20" s="44"/>
     </row>
     <row r="21" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>3</v>
       </c>
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
       <c r="G21" s="4">
         <v>6010</v>
       </c>
@@ -2169,17 +2169,17 @@
       <c r="I21" s="4">
         <v>5990</v>
       </c>
-      <c r="J21" s="74"/>
+      <c r="J21" s="44"/>
       <c r="K21">
         <v>3</v>
       </c>
-      <c r="L21" s="45" t="s">
+      <c r="L21" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="M21" s="46"/>
-      <c r="N21" s="46"/>
-      <c r="O21" s="46"/>
-      <c r="P21" s="46"/>
+      <c r="M21" s="49"/>
+      <c r="N21" s="49"/>
+      <c r="O21" s="49"/>
+      <c r="P21" s="49"/>
       <c r="Q21" s="4">
         <v>5739</v>
       </c>
@@ -2189,17 +2189,17 @@
       <c r="S21" s="8">
         <v>5814</v>
       </c>
-      <c r="T21" s="74"/>
+      <c r="T21" s="44"/>
       <c r="U21">
         <v>3</v>
       </c>
-      <c r="V21" s="37" t="s">
+      <c r="V21" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="W21" s="38"/>
-      <c r="X21" s="38"/>
-      <c r="Y21" s="38"/>
-      <c r="Z21" s="38"/>
+      <c r="W21" s="60"/>
+      <c r="X21" s="60"/>
+      <c r="Y21" s="60"/>
+      <c r="Z21" s="60"/>
       <c r="AA21" s="8">
         <v>6145</v>
       </c>
@@ -2209,19 +2209,19 @@
       <c r="AC21" s="9">
         <v>6142</v>
       </c>
-      <c r="AD21" s="74"/>
+      <c r="AD21" s="44"/>
     </row>
     <row r="22" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>4</v>
       </c>
-      <c r="B22" s="49" t="s">
+      <c r="B22" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
       <c r="G22" s="6">
         <v>6033</v>
       </c>
@@ -2231,17 +2231,17 @@
       <c r="I22" s="10">
         <v>6176</v>
       </c>
-      <c r="J22" s="75"/>
+      <c r="J22" s="45"/>
       <c r="K22">
         <v>4</v>
       </c>
-      <c r="L22" s="47" t="s">
+      <c r="L22" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="M22" s="48"/>
-      <c r="N22" s="48"/>
-      <c r="O22" s="48"/>
-      <c r="P22" s="48"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="32"/>
+      <c r="P22" s="32"/>
       <c r="Q22" s="10">
         <v>5679</v>
       </c>
@@ -2251,17 +2251,17 @@
       <c r="S22" s="6">
         <v>550</v>
       </c>
-      <c r="T22" s="75"/>
+      <c r="T22" s="45"/>
       <c r="U22">
         <v>4</v>
       </c>
-      <c r="V22" s="41" t="s">
+      <c r="V22" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="W22" s="42"/>
-      <c r="X22" s="42"/>
-      <c r="Y22" s="42"/>
-      <c r="Z22" s="42"/>
+      <c r="W22" s="62"/>
+      <c r="X22" s="62"/>
+      <c r="Y22" s="62"/>
+      <c r="Z22" s="62"/>
       <c r="AA22" s="10">
         <v>6351</v>
       </c>
@@ -2271,60 +2271,60 @@
       <c r="AC22" s="12">
         <v>6275</v>
       </c>
-      <c r="AD22" s="75"/>
+      <c r="AD22" s="45"/>
     </row>
     <row r="23" spans="1:30" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="53" t="s">
+      <c r="B23" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="58" t="s">
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="I23" s="59"/>
-      <c r="J23" s="60"/>
-      <c r="L23" s="53" t="s">
+      <c r="I23" s="54"/>
+      <c r="J23" s="55"/>
+      <c r="L23" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="M23" s="54"/>
-      <c r="N23" s="54"/>
-      <c r="O23" s="54"/>
-      <c r="P23" s="54"/>
-      <c r="Q23" s="55"/>
-      <c r="R23" s="58" t="s">
+      <c r="M23" s="39"/>
+      <c r="N23" s="39"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="S23" s="59"/>
-      <c r="T23" s="60"/>
-      <c r="V23" s="53" t="s">
+      <c r="S23" s="54"/>
+      <c r="T23" s="55"/>
+      <c r="V23" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="W23" s="54"/>
-      <c r="X23" s="54"/>
-      <c r="Y23" s="54"/>
-      <c r="Z23" s="54"/>
-      <c r="AA23" s="55"/>
-      <c r="AB23" s="58" t="s">
+      <c r="W23" s="39"/>
+      <c r="X23" s="39"/>
+      <c r="Y23" s="39"/>
+      <c r="Z23" s="39"/>
+      <c r="AA23" s="40"/>
+      <c r="AB23" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="AC23" s="59"/>
-      <c r="AD23" s="60"/>
+      <c r="AC23" s="54"/>
+      <c r="AD23" s="55"/>
     </row>
     <row r="24" spans="1:30" ht="16" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>1</v>
       </c>
-      <c r="B24" s="43" t="s">
+      <c r="B24" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
       <c r="G24" s="11">
         <v>6300</v>
       </c>
@@ -2334,19 +2334,19 @@
       <c r="I24" s="5">
         <v>6148</v>
       </c>
-      <c r="J24" s="73" t="s">
+      <c r="J24" s="43" t="s">
         <v>44</v>
       </c>
       <c r="K24">
         <v>1</v>
       </c>
-      <c r="L24" s="43" t="s">
+      <c r="L24" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="M24" s="44"/>
-      <c r="N24" s="44"/>
-      <c r="O24" s="44"/>
-      <c r="P24" s="44"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="47"/>
+      <c r="O24" s="47"/>
+      <c r="P24" s="47"/>
       <c r="Q24" s="5">
         <v>6121</v>
       </c>
@@ -2356,19 +2356,19 @@
       <c r="S24" s="5">
         <v>6180</v>
       </c>
-      <c r="T24" s="73" t="s">
+      <c r="T24" s="43" t="s">
         <v>44</v>
       </c>
       <c r="U24">
         <v>1</v>
       </c>
-      <c r="V24" s="35" t="s">
+      <c r="V24" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="W24" s="36"/>
-      <c r="X24" s="36"/>
-      <c r="Y24" s="36"/>
-      <c r="Z24" s="36"/>
+      <c r="W24" s="64"/>
+      <c r="X24" s="64"/>
+      <c r="Y24" s="64"/>
+      <c r="Z24" s="64"/>
       <c r="AA24" s="13">
         <v>6351</v>
       </c>
@@ -2378,7 +2378,7 @@
       <c r="AC24" s="13">
         <v>6338</v>
       </c>
-      <c r="AD24" s="73" t="s">
+      <c r="AD24" s="43" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2386,13 +2386,13 @@
       <c r="A25">
         <v>2</v>
       </c>
-      <c r="B25" s="39" t="s">
+      <c r="B25" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
       <c r="G25" s="4">
         <v>5052</v>
       </c>
@@ -2402,17 +2402,17 @@
       <c r="I25" s="4">
         <v>6162</v>
       </c>
-      <c r="J25" s="74"/>
+      <c r="J25" s="44"/>
       <c r="K25">
         <v>2</v>
       </c>
-      <c r="L25" s="39" t="s">
+      <c r="L25" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="M25" s="40"/>
-      <c r="N25" s="40"/>
-      <c r="O25" s="40"/>
-      <c r="P25" s="40"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="30"/>
+      <c r="P25" s="30"/>
       <c r="Q25" s="4">
         <v>6159</v>
       </c>
@@ -2422,17 +2422,17 @@
       <c r="S25" s="4">
         <v>5586</v>
       </c>
-      <c r="T25" s="74"/>
+      <c r="T25" s="44"/>
       <c r="U25">
         <v>2</v>
       </c>
-      <c r="V25" s="37" t="s">
+      <c r="V25" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="W25" s="38"/>
-      <c r="X25" s="38"/>
-      <c r="Y25" s="38"/>
-      <c r="Z25" s="38"/>
+      <c r="W25" s="60"/>
+      <c r="X25" s="60"/>
+      <c r="Y25" s="60"/>
+      <c r="Z25" s="60"/>
       <c r="AA25" s="8">
         <v>6593</v>
       </c>
@@ -2442,19 +2442,19 @@
       <c r="AC25" s="9">
         <v>5843</v>
       </c>
-      <c r="AD25" s="74"/>
+      <c r="AD25" s="44"/>
     </row>
     <row r="26" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>3</v>
       </c>
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
       <c r="G26" s="4">
         <v>6185</v>
       </c>
@@ -2464,17 +2464,17 @@
       <c r="I26" s="8">
         <v>6229</v>
       </c>
-      <c r="J26" s="74"/>
+      <c r="J26" s="44"/>
       <c r="K26">
         <v>3</v>
       </c>
-      <c r="L26" s="39" t="s">
+      <c r="L26" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="M26" s="40"/>
-      <c r="N26" s="40"/>
-      <c r="O26" s="40"/>
-      <c r="P26" s="40"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="30"/>
+      <c r="O26" s="30"/>
+      <c r="P26" s="30"/>
       <c r="Q26" s="8">
         <v>6272</v>
       </c>
@@ -2484,17 +2484,17 @@
       <c r="S26" s="4">
         <v>6237</v>
       </c>
-      <c r="T26" s="74"/>
+      <c r="T26" s="44"/>
       <c r="U26">
         <v>3</v>
       </c>
-      <c r="V26" s="37" t="s">
+      <c r="V26" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="W26" s="38"/>
-      <c r="X26" s="38"/>
-      <c r="Y26" s="38"/>
-      <c r="Z26" s="38"/>
+      <c r="W26" s="60"/>
+      <c r="X26" s="60"/>
+      <c r="Y26" s="60"/>
+      <c r="Z26" s="60"/>
       <c r="AA26" s="8">
         <v>6473</v>
       </c>
@@ -2504,19 +2504,19 @@
       <c r="AC26" s="9">
         <v>6465</v>
       </c>
-      <c r="AD26" s="74"/>
+      <c r="AD26" s="44"/>
     </row>
     <row r="27" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>4</v>
       </c>
-      <c r="B27" s="49" t="s">
+      <c r="B27" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="50"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
       <c r="G27" s="10">
         <v>6361</v>
       </c>
@@ -2526,17 +2526,17 @@
       <c r="I27" s="6">
         <v>6259</v>
       </c>
-      <c r="J27" s="75"/>
+      <c r="J27" s="45"/>
       <c r="K27">
         <v>4</v>
       </c>
-      <c r="L27" s="49" t="s">
+      <c r="L27" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="M27" s="50"/>
-      <c r="N27" s="50"/>
-      <c r="O27" s="50"/>
-      <c r="P27" s="50"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="34"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="34"/>
       <c r="Q27" s="10">
         <v>6349</v>
       </c>
@@ -2546,17 +2546,17 @@
       <c r="S27" s="6">
         <v>6189</v>
       </c>
-      <c r="T27" s="75"/>
+      <c r="T27" s="45"/>
       <c r="U27">
         <v>4</v>
       </c>
-      <c r="V27" s="41" t="s">
+      <c r="V27" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="W27" s="42"/>
-      <c r="X27" s="42"/>
-      <c r="Y27" s="42"/>
-      <c r="Z27" s="42"/>
+      <c r="W27" s="62"/>
+      <c r="X27" s="62"/>
+      <c r="Y27" s="62"/>
+      <c r="Z27" s="62"/>
       <c r="AA27" s="10">
         <v>6476</v>
       </c>
@@ -2566,60 +2566,60 @@
       <c r="AC27" s="12">
         <v>5494</v>
       </c>
-      <c r="AD27" s="75"/>
+      <c r="AD27" s="45"/>
     </row>
     <row r="28" spans="1:30" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="58" t="s">
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="I28" s="59"/>
-      <c r="J28" s="60"/>
-      <c r="L28" s="53" t="s">
+      <c r="I28" s="54"/>
+      <c r="J28" s="55"/>
+      <c r="L28" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="M28" s="54"/>
-      <c r="N28" s="54"/>
-      <c r="O28" s="54"/>
-      <c r="P28" s="54"/>
-      <c r="Q28" s="55"/>
-      <c r="R28" s="58" t="s">
+      <c r="M28" s="39"/>
+      <c r="N28" s="39"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="39"/>
+      <c r="Q28" s="40"/>
+      <c r="R28" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="S28" s="59"/>
-      <c r="T28" s="60"/>
-      <c r="V28" s="53" t="s">
+      <c r="S28" s="54"/>
+      <c r="T28" s="55"/>
+      <c r="V28" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="W28" s="54"/>
-      <c r="X28" s="54"/>
-      <c r="Y28" s="54"/>
-      <c r="Z28" s="54"/>
-      <c r="AA28" s="55"/>
-      <c r="AB28" s="58" t="s">
+      <c r="W28" s="39"/>
+      <c r="X28" s="39"/>
+      <c r="Y28" s="39"/>
+      <c r="Z28" s="39"/>
+      <c r="AA28" s="40"/>
+      <c r="AB28" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="AC28" s="59"/>
-      <c r="AD28" s="60"/>
+      <c r="AC28" s="54"/>
+      <c r="AD28" s="55"/>
     </row>
     <row r="29" spans="1:30" ht="16" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>1</v>
       </c>
-      <c r="B29" s="56" t="s">
+      <c r="B29" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="57"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
       <c r="G29" s="5">
         <v>6059</v>
       </c>
@@ -2629,19 +2629,19 @@
       <c r="I29" s="11">
         <v>6089</v>
       </c>
-      <c r="J29" s="73" t="s">
+      <c r="J29" s="43" t="s">
         <v>44</v>
       </c>
       <c r="K29">
         <v>1</v>
       </c>
-      <c r="L29" s="43" t="s">
+      <c r="L29" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="M29" s="44"/>
-      <c r="N29" s="44"/>
-      <c r="O29" s="44"/>
-      <c r="P29" s="44"/>
+      <c r="M29" s="47"/>
+      <c r="N29" s="47"/>
+      <c r="O29" s="47"/>
+      <c r="P29" s="47"/>
       <c r="Q29" s="11">
         <v>6317</v>
       </c>
@@ -2651,19 +2651,19 @@
       <c r="S29" s="5">
         <v>4587</v>
       </c>
-      <c r="T29" s="73" t="s">
+      <c r="T29" s="43" t="s">
         <v>44</v>
       </c>
       <c r="U29">
         <v>1</v>
       </c>
-      <c r="V29" s="35" t="s">
+      <c r="V29" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="W29" s="36"/>
-      <c r="X29" s="36"/>
-      <c r="Y29" s="36"/>
-      <c r="Z29" s="36"/>
+      <c r="W29" s="64"/>
+      <c r="X29" s="64"/>
+      <c r="Y29" s="64"/>
+      <c r="Z29" s="64"/>
       <c r="AA29" s="13">
         <v>6232</v>
       </c>
@@ -2673,7 +2673,7 @@
       <c r="AC29" s="13">
         <v>6194</v>
       </c>
-      <c r="AD29" s="73" t="s">
+      <c r="AD29" s="43" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2681,13 +2681,13 @@
       <c r="A30">
         <v>2</v>
       </c>
-      <c r="B30" s="45" t="s">
+      <c r="B30" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="46"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="46"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
       <c r="G30" s="8">
         <v>6092</v>
       </c>
@@ -2697,17 +2697,17 @@
       <c r="I30" s="4">
         <v>4763</v>
       </c>
-      <c r="J30" s="74"/>
+      <c r="J30" s="44"/>
       <c r="K30">
         <v>2</v>
       </c>
-      <c r="L30" s="39" t="s">
+      <c r="L30" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="M30" s="40"/>
-      <c r="N30" s="40"/>
-      <c r="O30" s="40"/>
-      <c r="P30" s="40"/>
+      <c r="M30" s="30"/>
+      <c r="N30" s="30"/>
+      <c r="O30" s="30"/>
+      <c r="P30" s="30"/>
       <c r="Q30" s="4">
         <v>5475</v>
       </c>
@@ -2717,17 +2717,17 @@
       <c r="S30" s="8">
         <v>6221</v>
       </c>
-      <c r="T30" s="74"/>
+      <c r="T30" s="44"/>
       <c r="U30">
         <v>2</v>
       </c>
-      <c r="V30" s="37" t="s">
+      <c r="V30" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="W30" s="38"/>
-      <c r="X30" s="38"/>
-      <c r="Y30" s="38"/>
-      <c r="Z30" s="38"/>
+      <c r="W30" s="60"/>
+      <c r="X30" s="60"/>
+      <c r="Y30" s="60"/>
+      <c r="Z30" s="60"/>
       <c r="AA30" s="9">
         <v>6181</v>
       </c>
@@ -2737,19 +2737,19 @@
       <c r="AC30" s="9">
         <v>6227</v>
       </c>
-      <c r="AD30" s="74"/>
+      <c r="AD30" s="44"/>
     </row>
     <row r="31" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>3</v>
       </c>
-      <c r="B31" s="45" t="s">
+      <c r="B31" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="46"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="46"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
       <c r="G31" s="8">
         <v>5932</v>
       </c>
@@ -2759,17 +2759,17 @@
       <c r="I31" s="4">
         <v>5914</v>
       </c>
-      <c r="J31" s="74"/>
+      <c r="J31" s="44"/>
       <c r="K31">
         <v>3</v>
       </c>
-      <c r="L31" s="39" t="s">
+      <c r="L31" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="M31" s="40"/>
-      <c r="N31" s="40"/>
-      <c r="O31" s="40"/>
-      <c r="P31" s="40"/>
+      <c r="M31" s="30"/>
+      <c r="N31" s="30"/>
+      <c r="O31" s="30"/>
+      <c r="P31" s="30"/>
       <c r="Q31" s="4">
         <v>6094</v>
       </c>
@@ -2779,17 +2779,17 @@
       <c r="S31" s="4">
         <v>6142</v>
       </c>
-      <c r="T31" s="74"/>
+      <c r="T31" s="44"/>
       <c r="U31">
         <v>3</v>
       </c>
-      <c r="V31" s="37" t="s">
+      <c r="V31" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="W31" s="38"/>
-      <c r="X31" s="38"/>
-      <c r="Y31" s="38"/>
-      <c r="Z31" s="38"/>
+      <c r="W31" s="60"/>
+      <c r="X31" s="60"/>
+      <c r="Y31" s="60"/>
+      <c r="Z31" s="60"/>
       <c r="AA31" s="9">
         <v>5452</v>
       </c>
@@ -2799,19 +2799,19 @@
       <c r="AC31" s="8">
         <v>6086</v>
       </c>
-      <c r="AD31" s="74"/>
+      <c r="AD31" s="44"/>
     </row>
     <row r="32" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>4</v>
       </c>
-      <c r="B32" s="47" t="s">
+      <c r="B32" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="48"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
       <c r="G32" s="6">
         <v>4850</v>
       </c>
@@ -2821,17 +2821,17 @@
       <c r="I32" s="6">
         <v>6036</v>
       </c>
-      <c r="J32" s="75"/>
+      <c r="J32" s="45"/>
       <c r="K32">
         <v>4</v>
       </c>
-      <c r="L32" s="49" t="s">
+      <c r="L32" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="M32" s="50"/>
-      <c r="N32" s="50"/>
-      <c r="O32" s="50"/>
-      <c r="P32" s="50"/>
+      <c r="M32" s="34"/>
+      <c r="N32" s="34"/>
+      <c r="O32" s="34"/>
+      <c r="P32" s="34"/>
       <c r="Q32" s="10">
         <v>6254</v>
       </c>
@@ -2841,17 +2841,17 @@
       <c r="S32" s="6">
         <v>4701</v>
       </c>
-      <c r="T32" s="75"/>
+      <c r="T32" s="45"/>
       <c r="U32">
         <v>4</v>
       </c>
-      <c r="V32" s="41" t="s">
+      <c r="V32" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="W32" s="42"/>
-      <c r="X32" s="42"/>
-      <c r="Y32" s="42"/>
-      <c r="Z32" s="42"/>
+      <c r="W32" s="62"/>
+      <c r="X32" s="62"/>
+      <c r="Y32" s="62"/>
+      <c r="Z32" s="62"/>
       <c r="AA32" s="12">
         <v>6292</v>
       </c>
@@ -2861,60 +2861,60 @@
       <c r="AC32" s="12">
         <v>5330</v>
       </c>
-      <c r="AD32" s="75"/>
+      <c r="AD32" s="45"/>
     </row>
     <row r="33" spans="1:30" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="67" t="s">
+      <c r="B33" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="68"/>
-      <c r="D33" s="68"/>
-      <c r="E33" s="68"/>
-      <c r="F33" s="68"/>
-      <c r="G33" s="69"/>
-      <c r="H33" s="58" t="s">
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="I33" s="59"/>
-      <c r="J33" s="60"/>
-      <c r="L33" s="53" t="s">
+      <c r="I33" s="54"/>
+      <c r="J33" s="55"/>
+      <c r="L33" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="M33" s="54"/>
-      <c r="N33" s="54"/>
-      <c r="O33" s="54"/>
-      <c r="P33" s="54"/>
-      <c r="Q33" s="55"/>
-      <c r="R33" s="70" t="s">
+      <c r="M33" s="39"/>
+      <c r="N33" s="39"/>
+      <c r="O33" s="39"/>
+      <c r="P33" s="39"/>
+      <c r="Q33" s="40"/>
+      <c r="R33" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="S33" s="71"/>
-      <c r="T33" s="72"/>
-      <c r="V33" s="53" t="s">
+      <c r="S33" s="57"/>
+      <c r="T33" s="58"/>
+      <c r="V33" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="W33" s="54"/>
-      <c r="X33" s="54"/>
-      <c r="Y33" s="54"/>
-      <c r="Z33" s="54"/>
-      <c r="AA33" s="55"/>
-      <c r="AB33" s="58" t="s">
+      <c r="W33" s="39"/>
+      <c r="X33" s="39"/>
+      <c r="Y33" s="39"/>
+      <c r="Z33" s="39"/>
+      <c r="AA33" s="40"/>
+      <c r="AB33" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="AC33" s="59"/>
-      <c r="AD33" s="60"/>
+      <c r="AC33" s="54"/>
+      <c r="AD33" s="55"/>
     </row>
     <row r="34" spans="1:30" ht="16" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>1</v>
       </c>
-      <c r="B34" s="56" t="s">
+      <c r="B34" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="57"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="57"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
       <c r="G34" s="5">
         <v>6220</v>
       </c>
@@ -2924,19 +2924,19 @@
       <c r="I34" s="11">
         <v>6301</v>
       </c>
-      <c r="J34" s="73" t="s">
+      <c r="J34" s="43" t="s">
         <v>44</v>
       </c>
       <c r="K34">
         <v>1</v>
       </c>
-      <c r="L34" s="43" t="s">
+      <c r="L34" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="M34" s="44"/>
-      <c r="N34" s="44"/>
-      <c r="O34" s="44"/>
-      <c r="P34" s="44"/>
+      <c r="M34" s="47"/>
+      <c r="N34" s="47"/>
+      <c r="O34" s="47"/>
+      <c r="P34" s="47"/>
       <c r="Q34" s="11">
         <v>7034</v>
       </c>
@@ -2946,19 +2946,19 @@
       <c r="S34" s="5">
         <v>6637</v>
       </c>
-      <c r="T34" s="73" t="s">
+      <c r="T34" s="43" t="s">
         <v>44</v>
       </c>
       <c r="U34">
         <v>1</v>
       </c>
-      <c r="V34" s="43" t="s">
+      <c r="V34" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="W34" s="44"/>
-      <c r="X34" s="44"/>
-      <c r="Y34" s="44"/>
-      <c r="Z34" s="44"/>
+      <c r="W34" s="47"/>
+      <c r="X34" s="47"/>
+      <c r="Y34" s="47"/>
+      <c r="Z34" s="47"/>
       <c r="AA34" s="13">
         <v>6245</v>
       </c>
@@ -2968,7 +2968,7 @@
       <c r="AC34" s="13">
         <v>6229</v>
       </c>
-      <c r="AD34" s="73" t="s">
+      <c r="AD34" s="43" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2976,13 +2976,13 @@
       <c r="A35">
         <v>2</v>
       </c>
-      <c r="B35" s="45" t="s">
+      <c r="B35" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="46"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="46"/>
-      <c r="F35" s="46"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
       <c r="G35" s="4">
         <v>6150</v>
       </c>
@@ -2992,17 +2992,17 @@
       <c r="I35" s="8">
         <v>6254</v>
       </c>
-      <c r="J35" s="74"/>
+      <c r="J35" s="44"/>
       <c r="K35">
         <v>2</v>
       </c>
-      <c r="L35" s="39" t="s">
+      <c r="L35" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="M35" s="40"/>
-      <c r="N35" s="40"/>
-      <c r="O35" s="40"/>
-      <c r="P35" s="40"/>
+      <c r="M35" s="30"/>
+      <c r="N35" s="30"/>
+      <c r="O35" s="30"/>
+      <c r="P35" s="30"/>
       <c r="Q35" s="4">
         <v>5242</v>
       </c>
@@ -3012,17 +3012,17 @@
       <c r="S35" s="8">
         <v>7161</v>
       </c>
-      <c r="T35" s="74"/>
+      <c r="T35" s="44"/>
       <c r="U35">
         <v>2</v>
       </c>
-      <c r="V35" s="39" t="s">
+      <c r="V35" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="W35" s="40"/>
-      <c r="X35" s="40"/>
-      <c r="Y35" s="40"/>
-      <c r="Z35" s="40"/>
+      <c r="W35" s="30"/>
+      <c r="X35" s="30"/>
+      <c r="Y35" s="30"/>
+      <c r="Z35" s="30"/>
       <c r="AA35" s="9">
         <v>6292</v>
       </c>
@@ -3032,19 +3032,19 @@
       <c r="AC35" s="9">
         <v>6273</v>
       </c>
-      <c r="AD35" s="74"/>
+      <c r="AD35" s="44"/>
     </row>
     <row r="36" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>3</v>
       </c>
-      <c r="B36" s="45" t="s">
+      <c r="B36" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="46"/>
-      <c r="D36" s="46"/>
-      <c r="E36" s="46"/>
-      <c r="F36" s="46"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
       <c r="G36" s="8">
         <v>6390</v>
       </c>
@@ -3054,17 +3054,17 @@
       <c r="I36" s="4">
         <v>6208</v>
       </c>
-      <c r="J36" s="74"/>
+      <c r="J36" s="44"/>
       <c r="K36">
         <v>3</v>
       </c>
-      <c r="L36" s="39" t="s">
+      <c r="L36" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="M36" s="40"/>
-      <c r="N36" s="40"/>
-      <c r="O36" s="40"/>
-      <c r="P36" s="40"/>
+      <c r="M36" s="30"/>
+      <c r="N36" s="30"/>
+      <c r="O36" s="30"/>
+      <c r="P36" s="30"/>
       <c r="Q36" s="4">
         <v>6870</v>
       </c>
@@ -3074,17 +3074,17 @@
       <c r="S36" s="8">
         <v>7128</v>
       </c>
-      <c r="T36" s="74"/>
+      <c r="T36" s="44"/>
       <c r="U36">
         <v>3</v>
       </c>
-      <c r="V36" s="39" t="s">
+      <c r="V36" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="W36" s="40"/>
-      <c r="X36" s="40"/>
-      <c r="Y36" s="40"/>
-      <c r="Z36" s="40"/>
+      <c r="W36" s="30"/>
+      <c r="X36" s="30"/>
+      <c r="Y36" s="30"/>
+      <c r="Z36" s="30"/>
       <c r="AA36" s="9">
         <v>6158</v>
       </c>
@@ -3094,19 +3094,19 @@
       <c r="AC36" s="9">
         <v>6331</v>
       </c>
-      <c r="AD36" s="74"/>
+      <c r="AD36" s="44"/>
     </row>
     <row r="37" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>4</v>
       </c>
-      <c r="B37" s="47" t="s">
+      <c r="B37" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C37" s="48"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="48"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
       <c r="G37" s="6">
         <v>4712</v>
       </c>
@@ -3116,17 +3116,17 @@
       <c r="I37" s="6">
         <v>6277</v>
       </c>
-      <c r="J37" s="75"/>
+      <c r="J37" s="45"/>
       <c r="K37">
         <v>4</v>
       </c>
-      <c r="L37" s="49" t="s">
+      <c r="L37" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="M37" s="50"/>
-      <c r="N37" s="50"/>
-      <c r="O37" s="50"/>
-      <c r="P37" s="50"/>
+      <c r="M37" s="34"/>
+      <c r="N37" s="34"/>
+      <c r="O37" s="34"/>
+      <c r="P37" s="34"/>
       <c r="Q37" s="10">
         <v>7016</v>
       </c>
@@ -3136,17 +3136,17 @@
       <c r="S37" s="6">
         <v>6991</v>
       </c>
-      <c r="T37" s="75"/>
+      <c r="T37" s="45"/>
       <c r="U37">
         <v>4</v>
       </c>
-      <c r="V37" s="39" t="s">
+      <c r="V37" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="W37" s="40"/>
-      <c r="X37" s="40"/>
-      <c r="Y37" s="40"/>
-      <c r="Z37" s="40"/>
+      <c r="W37" s="30"/>
+      <c r="X37" s="30"/>
+      <c r="Y37" s="30"/>
+      <c r="Z37" s="30"/>
       <c r="AA37" s="12">
         <v>5301</v>
       </c>
@@ -3156,48 +3156,48 @@
       <c r="AC37" s="10">
         <v>6273</v>
       </c>
-      <c r="AD37" s="75"/>
+      <c r="AD37" s="45"/>
     </row>
     <row r="38" spans="1:30" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="64" t="s">
+      <c r="B38" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="C38" s="65"/>
-      <c r="D38" s="65"/>
-      <c r="E38" s="65"/>
-      <c r="F38" s="65"/>
-      <c r="G38" s="66"/>
-      <c r="H38" s="61" t="s">
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="I38" s="62"/>
-      <c r="J38" s="63"/>
-      <c r="L38" s="53" t="s">
+      <c r="I38" s="27"/>
+      <c r="J38" s="28"/>
+      <c r="L38" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="M38" s="54"/>
-      <c r="N38" s="54"/>
-      <c r="O38" s="54"/>
-      <c r="P38" s="54"/>
-      <c r="Q38" s="55"/>
-      <c r="R38" s="61" t="s">
+      <c r="M38" s="39"/>
+      <c r="N38" s="39"/>
+      <c r="O38" s="39"/>
+      <c r="P38" s="39"/>
+      <c r="Q38" s="40"/>
+      <c r="R38" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="S38" s="62"/>
-      <c r="T38" s="63"/>
-      <c r="V38" s="53" t="s">
+      <c r="S38" s="27"/>
+      <c r="T38" s="28"/>
+      <c r="V38" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="W38" s="54"/>
-      <c r="X38" s="54"/>
-      <c r="Y38" s="54"/>
-      <c r="Z38" s="54"/>
-      <c r="AA38" s="55"/>
-      <c r="AB38" s="61" t="s">
+      <c r="W38" s="39"/>
+      <c r="X38" s="39"/>
+      <c r="Y38" s="39"/>
+      <c r="Z38" s="39"/>
+      <c r="AA38" s="40"/>
+      <c r="AB38" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="AC38" s="62"/>
-      <c r="AD38" s="63"/>
+      <c r="AC38" s="27"/>
+      <c r="AD38" s="28"/>
     </row>
     <row r="39" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B39" s="1"/>
@@ -3263,23 +3263,94 @@
     </row>
   </sheetData>
   <mergeCells count="129">
-    <mergeCell ref="AD9:AD12"/>
-    <mergeCell ref="AD14:AD17"/>
-    <mergeCell ref="AD19:AD22"/>
-    <mergeCell ref="AD24:AD27"/>
-    <mergeCell ref="AD29:AD32"/>
-    <mergeCell ref="V38:AA38"/>
-    <mergeCell ref="AB13:AD13"/>
-    <mergeCell ref="AB18:AD18"/>
-    <mergeCell ref="AB23:AD23"/>
-    <mergeCell ref="AB28:AD28"/>
-    <mergeCell ref="AB33:AD33"/>
-    <mergeCell ref="AB38:AD38"/>
-    <mergeCell ref="AD34:AD37"/>
-    <mergeCell ref="V37:Z37"/>
-    <mergeCell ref="V26:Z26"/>
-    <mergeCell ref="V27:Z27"/>
-    <mergeCell ref="V29:Z29"/>
+    <mergeCell ref="V8:Z8"/>
+    <mergeCell ref="V9:Z9"/>
+    <mergeCell ref="V10:Z10"/>
+    <mergeCell ref="V11:Z11"/>
+    <mergeCell ref="V12:Z12"/>
+    <mergeCell ref="V14:Z14"/>
+    <mergeCell ref="V15:Z15"/>
+    <mergeCell ref="L35:P35"/>
+    <mergeCell ref="L36:P36"/>
+    <mergeCell ref="L8:P8"/>
+    <mergeCell ref="V30:Z30"/>
+    <mergeCell ref="V16:Z16"/>
+    <mergeCell ref="V17:Z17"/>
+    <mergeCell ref="V19:Z19"/>
+    <mergeCell ref="V20:Z20"/>
+    <mergeCell ref="V21:Z21"/>
+    <mergeCell ref="V22:Z22"/>
+    <mergeCell ref="V31:Z31"/>
+    <mergeCell ref="V32:Z32"/>
+    <mergeCell ref="V34:Z34"/>
+    <mergeCell ref="V35:Z35"/>
+    <mergeCell ref="V36:Z36"/>
+    <mergeCell ref="V24:Z24"/>
+    <mergeCell ref="V25:Z25"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="L34:P34"/>
+    <mergeCell ref="L20:P20"/>
+    <mergeCell ref="L21:P21"/>
+    <mergeCell ref="L22:P22"/>
+    <mergeCell ref="L24:P24"/>
+    <mergeCell ref="L25:P25"/>
+    <mergeCell ref="L26:P26"/>
+    <mergeCell ref="L27:P27"/>
+    <mergeCell ref="L29:P29"/>
+    <mergeCell ref="L30:P30"/>
+    <mergeCell ref="L31:P31"/>
+    <mergeCell ref="L32:P32"/>
+    <mergeCell ref="L37:P37"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="J9:J12"/>
+    <mergeCell ref="T9:T12"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="L9:P9"/>
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="L11:P11"/>
+    <mergeCell ref="L12:P12"/>
+    <mergeCell ref="L14:P14"/>
+    <mergeCell ref="L15:P15"/>
+    <mergeCell ref="L16:P16"/>
+    <mergeCell ref="L17:P17"/>
+    <mergeCell ref="L19:P19"/>
+    <mergeCell ref="L18:P18"/>
+    <mergeCell ref="L38:Q38"/>
+    <mergeCell ref="L13:Q13"/>
+    <mergeCell ref="L23:Q23"/>
+    <mergeCell ref="L28:Q28"/>
+    <mergeCell ref="L33:Q33"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="H13:J13"/>
     <mergeCell ref="T24:T27"/>
     <mergeCell ref="T29:T32"/>
     <mergeCell ref="T34:T37"/>
@@ -3304,94 +3375,23 @@
     <mergeCell ref="J34:J37"/>
     <mergeCell ref="T14:T17"/>
     <mergeCell ref="T19:T22"/>
-    <mergeCell ref="L38:Q38"/>
-    <mergeCell ref="L13:Q13"/>
-    <mergeCell ref="L23:Q23"/>
-    <mergeCell ref="L28:Q28"/>
-    <mergeCell ref="L33:Q33"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="J9:J12"/>
-    <mergeCell ref="T9:T12"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="L9:P9"/>
-    <mergeCell ref="L10:P10"/>
-    <mergeCell ref="L11:P11"/>
-    <mergeCell ref="L12:P12"/>
-    <mergeCell ref="L14:P14"/>
-    <mergeCell ref="L15:P15"/>
-    <mergeCell ref="L16:P16"/>
-    <mergeCell ref="L17:P17"/>
-    <mergeCell ref="L19:P19"/>
-    <mergeCell ref="L18:P18"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="L34:P34"/>
-    <mergeCell ref="L20:P20"/>
-    <mergeCell ref="L21:P21"/>
-    <mergeCell ref="L22:P22"/>
-    <mergeCell ref="L24:P24"/>
-    <mergeCell ref="L25:P25"/>
-    <mergeCell ref="L26:P26"/>
-    <mergeCell ref="L27:P27"/>
-    <mergeCell ref="L29:P29"/>
-    <mergeCell ref="L30:P30"/>
-    <mergeCell ref="L31:P31"/>
-    <mergeCell ref="L32:P32"/>
-    <mergeCell ref="L37:P37"/>
-    <mergeCell ref="V8:Z8"/>
-    <mergeCell ref="V9:Z9"/>
-    <mergeCell ref="V10:Z10"/>
-    <mergeCell ref="V11:Z11"/>
-    <mergeCell ref="V12:Z12"/>
-    <mergeCell ref="V14:Z14"/>
-    <mergeCell ref="V15:Z15"/>
-    <mergeCell ref="L35:P35"/>
-    <mergeCell ref="L36:P36"/>
-    <mergeCell ref="L8:P8"/>
-    <mergeCell ref="V30:Z30"/>
-    <mergeCell ref="V16:Z16"/>
-    <mergeCell ref="V17:Z17"/>
-    <mergeCell ref="V19:Z19"/>
-    <mergeCell ref="V20:Z20"/>
-    <mergeCell ref="V21:Z21"/>
-    <mergeCell ref="V22:Z22"/>
-    <mergeCell ref="V31:Z31"/>
-    <mergeCell ref="V32:Z32"/>
-    <mergeCell ref="V34:Z34"/>
-    <mergeCell ref="V35:Z35"/>
-    <mergeCell ref="V36:Z36"/>
-    <mergeCell ref="V24:Z24"/>
-    <mergeCell ref="V25:Z25"/>
+    <mergeCell ref="AD9:AD12"/>
+    <mergeCell ref="AD14:AD17"/>
+    <mergeCell ref="AD19:AD22"/>
+    <mergeCell ref="AD24:AD27"/>
+    <mergeCell ref="AD29:AD32"/>
+    <mergeCell ref="V38:AA38"/>
+    <mergeCell ref="AB13:AD13"/>
+    <mergeCell ref="AB18:AD18"/>
+    <mergeCell ref="AB23:AD23"/>
+    <mergeCell ref="AB28:AD28"/>
+    <mergeCell ref="AB33:AD33"/>
+    <mergeCell ref="AB38:AD38"/>
+    <mergeCell ref="AD34:AD37"/>
+    <mergeCell ref="V37:Z37"/>
+    <mergeCell ref="V26:Z26"/>
+    <mergeCell ref="V27:Z27"/>
+    <mergeCell ref="V29:Z29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Testing Results & functionality repot/résultats des tests.xlsx
+++ b/Testing Results & functionality repot/résultats des tests.xlsx
@@ -82,9 +82,6 @@
     <t>FOR LOOP</t>
   </si>
   <si>
-    <t>FOR &amp; FOREACH</t>
-  </si>
-  <si>
     <t>FILTER &amp; FOREACH</t>
   </si>
   <si>
@@ -166,15 +163,6 @@
     <t>Les tests de performance ont été effectués 72 fois.</t>
   </si>
   <si>
-    <t>6 mots ont été choisis dans chaque champ : le titre (nom), la description et les ingrédients.</t>
-  </si>
-  <si>
-    <t>Les tests ont été exécutés 4 fois pour chaque mot ciblé.</t>
-  </si>
-  <si>
-    <t>L'algorithme qui a obtenu le score le plus élevé le plus souvent a été considéré comme le plus efficace.</t>
-  </si>
-  <si>
     <t>Conclusion:</t>
   </si>
   <si>
@@ -188,6 +176,18 @@
   </si>
   <si>
     <t>op/s</t>
+  </si>
+  <si>
+    <t>Six mots ont été choisis dans chaque champ : le titre (nom), la description et les ingrédients.</t>
+  </si>
+  <si>
+    <t>Les tests ont été exécutés quatre fois pour chaque mot ciblé.</t>
+  </si>
+  <si>
+    <t>L'algorithme qui a donné les meilleurs résultats (le plus souvent) a été considéré comme le plus efficace.</t>
+  </si>
+  <si>
+    <t>FOR LOOP &amp; FOREACH</t>
   </si>
 </sst>
 </file>
@@ -742,6 +742,120 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -751,24 +865,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -779,42 +875,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -823,15 +883,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -840,57 +891,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1201,7 +1201,7 @@
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="N42" sqref="N42"/>
+      <selection pane="bottomLeft" activeCell="R13" sqref="R13:T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1243,7 +1243,7 @@
     </row>
     <row r="3" spans="1:30" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B3" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" s="22"/>
       <c r="D3" s="22"/>
@@ -1261,7 +1261,7 @@
       <c r="R3" s="16"/>
       <c r="S3" s="16"/>
       <c r="V3" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W3" s="22"/>
       <c r="X3" s="22"/>
@@ -1274,7 +1274,7 @@
     </row>
     <row r="4" spans="1:30" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B4" s="22" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="22"/>
@@ -1292,7 +1292,7 @@
       <c r="R4" s="16"/>
       <c r="S4" s="16"/>
       <c r="V4" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W4" s="22"/>
       <c r="X4" s="22"/>
@@ -1305,7 +1305,7 @@
     </row>
     <row r="5" spans="1:30" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B5" s="22" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
@@ -1323,7 +1323,7 @@
       <c r="R5" s="16"/>
       <c r="S5" s="16"/>
       <c r="V5" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W5" s="22"/>
       <c r="X5" s="22"/>
@@ -1336,7 +1336,7 @@
     </row>
     <row r="6" spans="1:30" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B6" s="22" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
@@ -1354,7 +1354,7 @@
       <c r="R6" s="16"/>
       <c r="S6" s="16"/>
       <c r="V6" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="W6" s="22"/>
       <c r="X6" s="22"/>
@@ -1377,13 +1377,13 @@
       <c r="AC7" s="16"/>
     </row>
     <row r="8" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="71" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
+      <c r="B8" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
       <c r="G8" s="14" t="s">
         <v>15</v>
       </c>
@@ -1394,13 +1394,13 @@
         <v>17</v>
       </c>
       <c r="J8" s="15"/>
-      <c r="L8" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="M8" s="74"/>
-      <c r="N8" s="74"/>
-      <c r="O8" s="74"/>
-      <c r="P8" s="75"/>
+      <c r="L8" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="28"/>
       <c r="Q8" s="14" t="s">
         <v>15</v>
       </c>
@@ -1411,13 +1411,13 @@
         <v>17</v>
       </c>
       <c r="T8" s="15"/>
-      <c r="V8" s="73" t="s">
-        <v>31</v>
-      </c>
-      <c r="W8" s="74"/>
-      <c r="X8" s="74"/>
-      <c r="Y8" s="74"/>
-      <c r="Z8" s="75"/>
+      <c r="V8" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="W8" s="27"/>
+      <c r="X8" s="27"/>
+      <c r="Y8" s="27"/>
+      <c r="Z8" s="28"/>
       <c r="AA8" s="14" t="s">
         <v>15</v>
       </c>
@@ -1433,13 +1433,13 @@
       <c r="A9">
         <v>1</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
       <c r="G9" s="11">
         <v>5984</v>
       </c>
@@ -1449,19 +1449,19 @@
       <c r="I9" s="5">
         <v>5885</v>
       </c>
-      <c r="J9" s="43" t="s">
-        <v>44</v>
+      <c r="J9" s="58" t="s">
+        <v>40</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
-      <c r="L9" s="65" t="s">
+      <c r="L9" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="M9" s="66"/>
-      <c r="N9" s="66"/>
-      <c r="O9" s="66"/>
-      <c r="P9" s="67"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="31"/>
       <c r="Q9" s="5">
         <v>6156</v>
       </c>
@@ -1471,19 +1471,19 @@
       <c r="S9" s="11">
         <v>6164</v>
       </c>
-      <c r="T9" s="43" t="s">
-        <v>44</v>
+      <c r="T9" s="58" t="s">
+        <v>40</v>
       </c>
       <c r="U9">
         <v>1</v>
       </c>
-      <c r="V9" s="65" t="s">
+      <c r="V9" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="W9" s="66"/>
-      <c r="X9" s="66"/>
-      <c r="Y9" s="66"/>
-      <c r="Z9" s="67"/>
+      <c r="W9" s="30"/>
+      <c r="X9" s="30"/>
+      <c r="Y9" s="30"/>
+      <c r="Z9" s="31"/>
       <c r="AA9" s="13">
         <v>5486</v>
       </c>
@@ -1493,21 +1493,21 @@
       <c r="AC9" s="13">
         <v>5724</v>
       </c>
-      <c r="AD9" s="43" t="s">
-        <v>44</v>
+      <c r="AD9" s="58" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
       <c r="G10" s="4">
         <v>5284</v>
       </c>
@@ -1517,17 +1517,17 @@
       <c r="I10" s="8">
         <v>6016</v>
       </c>
-      <c r="J10" s="44"/>
+      <c r="J10" s="59"/>
       <c r="K10">
         <v>2</v>
       </c>
-      <c r="L10" s="65" t="s">
+      <c r="L10" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="M10" s="66"/>
-      <c r="N10" s="66"/>
-      <c r="O10" s="66"/>
-      <c r="P10" s="67"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="31"/>
       <c r="Q10" s="4">
         <v>6044</v>
       </c>
@@ -1537,17 +1537,17 @@
       <c r="S10" s="8">
         <v>6216</v>
       </c>
-      <c r="T10" s="44"/>
+      <c r="T10" s="59"/>
       <c r="U10">
         <v>2</v>
       </c>
-      <c r="V10" s="65" t="s">
+      <c r="V10" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="W10" s="66"/>
-      <c r="X10" s="66"/>
-      <c r="Y10" s="66"/>
-      <c r="Z10" s="67"/>
+      <c r="W10" s="30"/>
+      <c r="X10" s="30"/>
+      <c r="Y10" s="30"/>
+      <c r="Z10" s="31"/>
       <c r="AA10" s="9">
         <v>664</v>
       </c>
@@ -1557,19 +1557,19 @@
       <c r="AC10" s="8">
         <v>6202</v>
       </c>
-      <c r="AD10" s="44"/>
+      <c r="AD10" s="59"/>
     </row>
     <row r="11" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>3</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
       <c r="G11" s="4">
         <v>6018</v>
       </c>
@@ -1579,17 +1579,17 @@
       <c r="I11" s="4">
         <v>4617</v>
       </c>
-      <c r="J11" s="44"/>
+      <c r="J11" s="59"/>
       <c r="K11">
         <v>3</v>
       </c>
-      <c r="L11" s="65" t="s">
+      <c r="L11" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="66"/>
-      <c r="N11" s="66"/>
-      <c r="O11" s="66"/>
-      <c r="P11" s="67"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="31"/>
       <c r="Q11" s="4">
         <v>5504</v>
       </c>
@@ -1599,17 +1599,17 @@
       <c r="S11" s="4">
         <v>5971</v>
       </c>
-      <c r="T11" s="44"/>
+      <c r="T11" s="59"/>
       <c r="U11">
         <v>3</v>
       </c>
-      <c r="V11" s="65" t="s">
+      <c r="V11" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="W11" s="66"/>
-      <c r="X11" s="66"/>
-      <c r="Y11" s="66"/>
-      <c r="Z11" s="67"/>
+      <c r="W11" s="30"/>
+      <c r="X11" s="30"/>
+      <c r="Y11" s="30"/>
+      <c r="Z11" s="31"/>
       <c r="AA11" s="8">
         <v>6100</v>
       </c>
@@ -1619,19 +1619,19 @@
       <c r="AC11" s="9">
         <v>6009</v>
       </c>
-      <c r="AD11" s="44"/>
+      <c r="AD11" s="59"/>
     </row>
     <row r="12" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>4</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
       <c r="G12" s="10">
         <v>5905</v>
       </c>
@@ -1641,17 +1641,17 @@
       <c r="I12" s="6">
         <v>4853</v>
       </c>
-      <c r="J12" s="45"/>
+      <c r="J12" s="60"/>
       <c r="K12">
         <v>4</v>
       </c>
-      <c r="L12" s="68" t="s">
+      <c r="L12" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="69"/>
-      <c r="N12" s="69"/>
-      <c r="O12" s="69"/>
-      <c r="P12" s="70"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="34"/>
       <c r="Q12" s="6">
         <v>6071</v>
       </c>
@@ -1661,17 +1661,17 @@
       <c r="S12" s="6">
         <v>6269</v>
       </c>
-      <c r="T12" s="45"/>
+      <c r="T12" s="60"/>
       <c r="U12">
         <v>4</v>
       </c>
-      <c r="V12" s="68" t="s">
+      <c r="V12" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="W12" s="69"/>
-      <c r="X12" s="69"/>
-      <c r="Y12" s="69"/>
-      <c r="Z12" s="70"/>
+      <c r="W12" s="33"/>
+      <c r="X12" s="33"/>
+      <c r="Y12" s="33"/>
+      <c r="Z12" s="34"/>
       <c r="AA12" s="10">
         <v>6262</v>
       </c>
@@ -1681,60 +1681,60 @@
       <c r="AC12" s="12">
         <v>5999</v>
       </c>
-      <c r="AD12" s="45"/>
+      <c r="AD12" s="60"/>
     </row>
     <row r="13" spans="1:30" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="53" t="s">
+      <c r="B13" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="54"/>
-      <c r="J13" s="55"/>
-      <c r="L13" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="40"/>
-      <c r="R13" s="53" t="s">
-        <v>22</v>
-      </c>
-      <c r="S13" s="54"/>
-      <c r="T13" s="55"/>
-      <c r="V13" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="W13" s="39"/>
-      <c r="X13" s="39"/>
-      <c r="Y13" s="39"/>
-      <c r="Z13" s="39"/>
-      <c r="AA13" s="40"/>
-      <c r="AB13" s="53" t="s">
+      <c r="I13" s="62"/>
+      <c r="J13" s="63"/>
+      <c r="L13" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="54"/>
+      <c r="Q13" s="55"/>
+      <c r="R13" s="61" t="s">
+        <v>44</v>
+      </c>
+      <c r="S13" s="62"/>
+      <c r="T13" s="63"/>
+      <c r="V13" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="W13" s="54"/>
+      <c r="X13" s="54"/>
+      <c r="Y13" s="54"/>
+      <c r="Z13" s="54"/>
+      <c r="AA13" s="55"/>
+      <c r="AB13" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="AC13" s="54"/>
-      <c r="AD13" s="55"/>
+      <c r="AC13" s="62"/>
+      <c r="AD13" s="63"/>
     </row>
     <row r="14" spans="1:30" ht="16" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1</v>
       </c>
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
       <c r="G14" s="11">
         <v>6241</v>
       </c>
@@ -1744,19 +1744,19 @@
       <c r="I14" s="5">
         <v>5336</v>
       </c>
-      <c r="J14" s="43" t="s">
-        <v>44</v>
+      <c r="J14" s="58" t="s">
+        <v>40</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
-      <c r="L14" s="41" t="s">
+      <c r="L14" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="M14" s="42"/>
-      <c r="N14" s="42"/>
-      <c r="O14" s="42"/>
-      <c r="P14" s="42"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="57"/>
+      <c r="P14" s="57"/>
       <c r="Q14" s="5">
         <v>5606</v>
       </c>
@@ -1766,19 +1766,19 @@
       <c r="S14" s="5">
         <v>5870</v>
       </c>
-      <c r="T14" s="43" t="s">
-        <v>44</v>
+      <c r="T14" s="58" t="s">
+        <v>40</v>
       </c>
       <c r="U14">
         <v>1</v>
       </c>
-      <c r="V14" s="63" t="s">
+      <c r="V14" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="W14" s="64"/>
-      <c r="X14" s="64"/>
-      <c r="Y14" s="64"/>
-      <c r="Z14" s="64"/>
+      <c r="W14" s="36"/>
+      <c r="X14" s="36"/>
+      <c r="Y14" s="36"/>
+      <c r="Z14" s="36"/>
       <c r="AA14" s="11">
         <v>6614</v>
       </c>
@@ -1788,21 +1788,21 @@
       <c r="AC14" s="13">
         <v>6512</v>
       </c>
-      <c r="AD14" s="43" t="s">
-        <v>44</v>
+      <c r="AD14" s="58" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
       <c r="G15" s="4">
         <v>6227</v>
       </c>
@@ -1812,17 +1812,17 @@
       <c r="I15" s="8">
         <v>6286</v>
       </c>
-      <c r="J15" s="44"/>
+      <c r="J15" s="59"/>
       <c r="K15">
         <v>2</v>
       </c>
-      <c r="L15" s="48" t="s">
+      <c r="L15" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="M15" s="49"/>
-      <c r="N15" s="49"/>
-      <c r="O15" s="49"/>
-      <c r="P15" s="49"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="46"/>
+      <c r="P15" s="46"/>
       <c r="Q15" s="4">
         <v>5754</v>
       </c>
@@ -1832,17 +1832,17 @@
       <c r="S15" s="8">
         <v>5886</v>
       </c>
-      <c r="T15" s="44"/>
+      <c r="T15" s="59"/>
       <c r="U15">
         <v>2</v>
       </c>
-      <c r="V15" s="59" t="s">
+      <c r="V15" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="W15" s="60"/>
-      <c r="X15" s="60"/>
-      <c r="Y15" s="60"/>
-      <c r="Z15" s="60"/>
+      <c r="W15" s="38"/>
+      <c r="X15" s="38"/>
+      <c r="Y15" s="38"/>
+      <c r="Z15" s="38"/>
       <c r="AA15" s="9">
         <v>5620</v>
       </c>
@@ -1852,19 +1852,19 @@
       <c r="AC15" s="8">
         <v>6568</v>
       </c>
-      <c r="AD15" s="44"/>
+      <c r="AD15" s="59"/>
     </row>
     <row r="16" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>3</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
       <c r="G16" s="8">
         <v>6283</v>
       </c>
@@ -1874,17 +1874,17 @@
       <c r="I16" s="4">
         <v>4790</v>
       </c>
-      <c r="J16" s="44"/>
+      <c r="J16" s="59"/>
       <c r="K16">
         <v>3</v>
       </c>
-      <c r="L16" s="48" t="s">
+      <c r="L16" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="M16" s="49"/>
-      <c r="N16" s="49"/>
-      <c r="O16" s="49"/>
-      <c r="P16" s="49"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="46"/>
+      <c r="O16" s="46"/>
+      <c r="P16" s="46"/>
       <c r="Q16" s="8">
         <v>5821</v>
       </c>
@@ -1894,17 +1894,17 @@
       <c r="S16" s="4">
         <v>4726</v>
       </c>
-      <c r="T16" s="44"/>
+      <c r="T16" s="59"/>
       <c r="U16">
         <v>3</v>
       </c>
-      <c r="V16" s="59" t="s">
+      <c r="V16" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="W16" s="60"/>
-      <c r="X16" s="60"/>
-      <c r="Y16" s="60"/>
-      <c r="Z16" s="60"/>
+      <c r="W16" s="38"/>
+      <c r="X16" s="38"/>
+      <c r="Y16" s="38"/>
+      <c r="Z16" s="38"/>
       <c r="AA16" s="9">
         <v>6570</v>
       </c>
@@ -1914,19 +1914,19 @@
       <c r="AC16" s="8">
         <v>6572</v>
       </c>
-      <c r="AD16" s="44"/>
+      <c r="AD16" s="59"/>
     </row>
     <row r="17" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>4</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
       <c r="G17" s="6">
         <v>5763</v>
       </c>
@@ -1936,17 +1936,17 @@
       <c r="I17" s="6">
         <v>6279</v>
       </c>
-      <c r="J17" s="45"/>
+      <c r="J17" s="60"/>
       <c r="K17">
         <v>4</v>
       </c>
-      <c r="L17" s="31" t="s">
+      <c r="L17" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="32"/>
-      <c r="P17" s="32"/>
+      <c r="M17" s="48"/>
+      <c r="N17" s="48"/>
+      <c r="O17" s="48"/>
+      <c r="P17" s="48"/>
       <c r="Q17" s="10">
         <v>5939</v>
       </c>
@@ -1956,17 +1956,17 @@
       <c r="S17" s="6">
         <v>4536</v>
       </c>
-      <c r="T17" s="45"/>
+      <c r="T17" s="60"/>
       <c r="U17">
         <v>4</v>
       </c>
-      <c r="V17" s="61" t="s">
+      <c r="V17" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="W17" s="62"/>
-      <c r="X17" s="62"/>
-      <c r="Y17" s="62"/>
-      <c r="Z17" s="62"/>
+      <c r="W17" s="42"/>
+      <c r="X17" s="42"/>
+      <c r="Y17" s="42"/>
+      <c r="Z17" s="42"/>
       <c r="AA17" s="12">
         <v>5184</v>
       </c>
@@ -1976,60 +1976,60 @@
       <c r="AC17" s="10">
         <v>6491</v>
       </c>
-      <c r="AD17" s="45"/>
+      <c r="AD17" s="60"/>
     </row>
     <row r="18" spans="1:30" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="53" t="s">
+      <c r="B18" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="I18" s="54"/>
-      <c r="J18" s="55"/>
-      <c r="L18" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="M18" s="39"/>
-      <c r="N18" s="39"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="40"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="63"/>
+      <c r="L18" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="M18" s="54"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="54"/>
+      <c r="P18" s="55"/>
       <c r="Q18" s="7"/>
-      <c r="R18" s="53" t="s">
+      <c r="R18" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="S18" s="54"/>
-      <c r="T18" s="55"/>
-      <c r="V18" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="W18" s="39"/>
-      <c r="X18" s="39"/>
-      <c r="Y18" s="39"/>
-      <c r="Z18" s="39"/>
-      <c r="AA18" s="40"/>
-      <c r="AB18" s="53" t="s">
+      <c r="S18" s="62"/>
+      <c r="T18" s="63"/>
+      <c r="V18" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="W18" s="54"/>
+      <c r="X18" s="54"/>
+      <c r="Y18" s="54"/>
+      <c r="Z18" s="54"/>
+      <c r="AA18" s="55"/>
+      <c r="AB18" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="AC18" s="54"/>
-      <c r="AD18" s="55"/>
+      <c r="AC18" s="62"/>
+      <c r="AD18" s="63"/>
     </row>
     <row r="19" spans="1:30" ht="16" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>1</v>
       </c>
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
       <c r="G19" s="11">
         <v>5925</v>
       </c>
@@ -2039,19 +2039,19 @@
       <c r="I19" s="5">
         <v>4489</v>
       </c>
-      <c r="J19" s="43" t="s">
-        <v>44</v>
+      <c r="J19" s="58" t="s">
+        <v>40</v>
       </c>
       <c r="K19">
         <v>1</v>
       </c>
-      <c r="L19" s="41" t="s">
+      <c r="L19" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="M19" s="42"/>
-      <c r="N19" s="42"/>
-      <c r="O19" s="42"/>
-      <c r="P19" s="42"/>
+      <c r="M19" s="57"/>
+      <c r="N19" s="57"/>
+      <c r="O19" s="57"/>
+      <c r="P19" s="57"/>
       <c r="Q19" s="11">
         <v>5756</v>
       </c>
@@ -2061,19 +2061,19 @@
       <c r="S19" s="5">
         <v>5700</v>
       </c>
-      <c r="T19" s="43" t="s">
-        <v>44</v>
+      <c r="T19" s="58" t="s">
+        <v>40</v>
       </c>
       <c r="U19">
         <v>1</v>
       </c>
-      <c r="V19" s="63" t="s">
+      <c r="V19" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="W19" s="64"/>
-      <c r="X19" s="64"/>
-      <c r="Y19" s="64"/>
-      <c r="Z19" s="64"/>
+      <c r="W19" s="36"/>
+      <c r="X19" s="36"/>
+      <c r="Y19" s="36"/>
+      <c r="Z19" s="36"/>
       <c r="AA19" s="11">
         <v>6424</v>
       </c>
@@ -2083,21 +2083,21 @@
       <c r="AC19" s="13">
         <v>6133</v>
       </c>
-      <c r="AD19" s="43" t="s">
-        <v>44</v>
+      <c r="AD19" s="58" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>2</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
       <c r="G20" s="8">
         <v>6102</v>
       </c>
@@ -2107,17 +2107,17 @@
       <c r="I20" s="4">
         <v>6033</v>
       </c>
-      <c r="J20" s="44"/>
+      <c r="J20" s="59"/>
       <c r="K20">
         <v>2</v>
       </c>
-      <c r="L20" s="48" t="s">
+      <c r="L20" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="M20" s="49"/>
-      <c r="N20" s="49"/>
-      <c r="O20" s="49"/>
-      <c r="P20" s="49"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="46"/>
+      <c r="O20" s="46"/>
+      <c r="P20" s="46"/>
       <c r="Q20" s="8">
         <v>5751</v>
       </c>
@@ -2127,17 +2127,17 @@
       <c r="S20" s="4">
         <v>4141</v>
       </c>
-      <c r="T20" s="44"/>
+      <c r="T20" s="59"/>
       <c r="U20">
         <v>2</v>
       </c>
-      <c r="V20" s="59" t="s">
+      <c r="V20" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="W20" s="60"/>
-      <c r="X20" s="60"/>
-      <c r="Y20" s="60"/>
-      <c r="Z20" s="60"/>
+      <c r="W20" s="38"/>
+      <c r="X20" s="38"/>
+      <c r="Y20" s="38"/>
+      <c r="Z20" s="38"/>
       <c r="AA20" s="8">
         <v>6387</v>
       </c>
@@ -2147,19 +2147,19 @@
       <c r="AC20" s="9">
         <v>6215</v>
       </c>
-      <c r="AD20" s="44"/>
+      <c r="AD20" s="59"/>
     </row>
     <row r="21" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>3</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
       <c r="G21" s="4">
         <v>6010</v>
       </c>
@@ -2169,17 +2169,17 @@
       <c r="I21" s="4">
         <v>5990</v>
       </c>
-      <c r="J21" s="44"/>
+      <c r="J21" s="59"/>
       <c r="K21">
         <v>3</v>
       </c>
-      <c r="L21" s="48" t="s">
+      <c r="L21" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="M21" s="49"/>
-      <c r="N21" s="49"/>
-      <c r="O21" s="49"/>
-      <c r="P21" s="49"/>
+      <c r="M21" s="46"/>
+      <c r="N21" s="46"/>
+      <c r="O21" s="46"/>
+      <c r="P21" s="46"/>
       <c r="Q21" s="4">
         <v>5739</v>
       </c>
@@ -2189,17 +2189,17 @@
       <c r="S21" s="8">
         <v>5814</v>
       </c>
-      <c r="T21" s="44"/>
+      <c r="T21" s="59"/>
       <c r="U21">
         <v>3</v>
       </c>
-      <c r="V21" s="59" t="s">
+      <c r="V21" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="W21" s="60"/>
-      <c r="X21" s="60"/>
-      <c r="Y21" s="60"/>
-      <c r="Z21" s="60"/>
+      <c r="W21" s="38"/>
+      <c r="X21" s="38"/>
+      <c r="Y21" s="38"/>
+      <c r="Z21" s="38"/>
       <c r="AA21" s="8">
         <v>6145</v>
       </c>
@@ -2209,19 +2209,19 @@
       <c r="AC21" s="9">
         <v>6142</v>
       </c>
-      <c r="AD21" s="44"/>
+      <c r="AD21" s="59"/>
     </row>
     <row r="22" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>4</v>
       </c>
-      <c r="B22" s="33" t="s">
+      <c r="B22" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
       <c r="G22" s="6">
         <v>6033</v>
       </c>
@@ -2231,17 +2231,17 @@
       <c r="I22" s="10">
         <v>6176</v>
       </c>
-      <c r="J22" s="45"/>
+      <c r="J22" s="60"/>
       <c r="K22">
         <v>4</v>
       </c>
-      <c r="L22" s="31" t="s">
+      <c r="L22" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="M22" s="32"/>
-      <c r="N22" s="32"/>
-      <c r="O22" s="32"/>
-      <c r="P22" s="32"/>
+      <c r="M22" s="48"/>
+      <c r="N22" s="48"/>
+      <c r="O22" s="48"/>
+      <c r="P22" s="48"/>
       <c r="Q22" s="10">
         <v>5679</v>
       </c>
@@ -2251,17 +2251,17 @@
       <c r="S22" s="6">
         <v>550</v>
       </c>
-      <c r="T22" s="45"/>
+      <c r="T22" s="60"/>
       <c r="U22">
         <v>4</v>
       </c>
-      <c r="V22" s="61" t="s">
+      <c r="V22" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="W22" s="62"/>
-      <c r="X22" s="62"/>
-      <c r="Y22" s="62"/>
-      <c r="Z22" s="62"/>
+      <c r="W22" s="42"/>
+      <c r="X22" s="42"/>
+      <c r="Y22" s="42"/>
+      <c r="Z22" s="42"/>
       <c r="AA22" s="10">
         <v>6351</v>
       </c>
@@ -2271,60 +2271,60 @@
       <c r="AC22" s="12">
         <v>6275</v>
       </c>
-      <c r="AD22" s="45"/>
+      <c r="AD22" s="60"/>
     </row>
     <row r="23" spans="1:30" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="53" t="s">
+      <c r="B23" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="I23" s="54"/>
-      <c r="J23" s="55"/>
-      <c r="L23" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="M23" s="39"/>
-      <c r="N23" s="39"/>
-      <c r="O23" s="39"/>
-      <c r="P23" s="39"/>
-      <c r="Q23" s="40"/>
-      <c r="R23" s="53" t="s">
+      <c r="I23" s="62"/>
+      <c r="J23" s="63"/>
+      <c r="L23" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="M23" s="54"/>
+      <c r="N23" s="54"/>
+      <c r="O23" s="54"/>
+      <c r="P23" s="54"/>
+      <c r="Q23" s="55"/>
+      <c r="R23" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="S23" s="54"/>
-      <c r="T23" s="55"/>
-      <c r="V23" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="W23" s="39"/>
-      <c r="X23" s="39"/>
-      <c r="Y23" s="39"/>
-      <c r="Z23" s="39"/>
-      <c r="AA23" s="40"/>
-      <c r="AB23" s="53" t="s">
+      <c r="S23" s="62"/>
+      <c r="T23" s="63"/>
+      <c r="V23" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="W23" s="54"/>
+      <c r="X23" s="54"/>
+      <c r="Y23" s="54"/>
+      <c r="Z23" s="54"/>
+      <c r="AA23" s="55"/>
+      <c r="AB23" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="AC23" s="54"/>
-      <c r="AD23" s="55"/>
+      <c r="AC23" s="62"/>
+      <c r="AD23" s="63"/>
     </row>
     <row r="24" spans="1:30" ht="16" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>1</v>
       </c>
-      <c r="B24" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
+      <c r="B24" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
       <c r="G24" s="11">
         <v>6300</v>
       </c>
@@ -2334,19 +2334,19 @@
       <c r="I24" s="5">
         <v>6148</v>
       </c>
-      <c r="J24" s="43" t="s">
-        <v>44</v>
+      <c r="J24" s="58" t="s">
+        <v>40</v>
       </c>
       <c r="K24">
         <v>1</v>
       </c>
-      <c r="L24" s="46" t="s">
+      <c r="L24" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="M24" s="47"/>
-      <c r="N24" s="47"/>
-      <c r="O24" s="47"/>
-      <c r="P24" s="47"/>
+      <c r="M24" s="44"/>
+      <c r="N24" s="44"/>
+      <c r="O24" s="44"/>
+      <c r="P24" s="44"/>
       <c r="Q24" s="5">
         <v>6121</v>
       </c>
@@ -2356,19 +2356,19 @@
       <c r="S24" s="5">
         <v>6180</v>
       </c>
-      <c r="T24" s="43" t="s">
-        <v>44</v>
+      <c r="T24" s="58" t="s">
+        <v>40</v>
       </c>
       <c r="U24">
         <v>1</v>
       </c>
-      <c r="V24" s="63" t="s">
+      <c r="V24" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="W24" s="64"/>
-      <c r="X24" s="64"/>
-      <c r="Y24" s="64"/>
-      <c r="Z24" s="64"/>
+      <c r="W24" s="36"/>
+      <c r="X24" s="36"/>
+      <c r="Y24" s="36"/>
+      <c r="Z24" s="36"/>
       <c r="AA24" s="13">
         <v>6351</v>
       </c>
@@ -2378,21 +2378,21 @@
       <c r="AC24" s="13">
         <v>6338</v>
       </c>
-      <c r="AD24" s="43" t="s">
-        <v>44</v>
+      <c r="AD24" s="58" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>2</v>
       </c>
-      <c r="B25" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
+      <c r="B25" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
       <c r="G25" s="4">
         <v>5052</v>
       </c>
@@ -2402,17 +2402,17 @@
       <c r="I25" s="4">
         <v>6162</v>
       </c>
-      <c r="J25" s="44"/>
+      <c r="J25" s="59"/>
       <c r="K25">
         <v>2</v>
       </c>
-      <c r="L25" s="29" t="s">
+      <c r="L25" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="M25" s="30"/>
-      <c r="N25" s="30"/>
-      <c r="O25" s="30"/>
-      <c r="P25" s="30"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="40"/>
       <c r="Q25" s="4">
         <v>6159</v>
       </c>
@@ -2422,17 +2422,17 @@
       <c r="S25" s="4">
         <v>5586</v>
       </c>
-      <c r="T25" s="44"/>
+      <c r="T25" s="59"/>
       <c r="U25">
         <v>2</v>
       </c>
-      <c r="V25" s="59" t="s">
+      <c r="V25" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="W25" s="60"/>
-      <c r="X25" s="60"/>
-      <c r="Y25" s="60"/>
-      <c r="Z25" s="60"/>
+      <c r="W25" s="38"/>
+      <c r="X25" s="38"/>
+      <c r="Y25" s="38"/>
+      <c r="Z25" s="38"/>
       <c r="AA25" s="8">
         <v>6593</v>
       </c>
@@ -2442,19 +2442,19 @@
       <c r="AC25" s="9">
         <v>5843</v>
       </c>
-      <c r="AD25" s="44"/>
+      <c r="AD25" s="59"/>
     </row>
     <row r="26" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>3</v>
       </c>
-      <c r="B26" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
+      <c r="B26" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
       <c r="G26" s="4">
         <v>6185</v>
       </c>
@@ -2464,17 +2464,17 @@
       <c r="I26" s="8">
         <v>6229</v>
       </c>
-      <c r="J26" s="44"/>
+      <c r="J26" s="59"/>
       <c r="K26">
         <v>3</v>
       </c>
-      <c r="L26" s="29" t="s">
+      <c r="L26" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="M26" s="30"/>
-      <c r="N26" s="30"/>
-      <c r="O26" s="30"/>
-      <c r="P26" s="30"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="40"/>
       <c r="Q26" s="8">
         <v>6272</v>
       </c>
@@ -2484,17 +2484,17 @@
       <c r="S26" s="4">
         <v>6237</v>
       </c>
-      <c r="T26" s="44"/>
+      <c r="T26" s="59"/>
       <c r="U26">
         <v>3</v>
       </c>
-      <c r="V26" s="59" t="s">
+      <c r="V26" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="W26" s="60"/>
-      <c r="X26" s="60"/>
-      <c r="Y26" s="60"/>
-      <c r="Z26" s="60"/>
+      <c r="W26" s="38"/>
+      <c r="X26" s="38"/>
+      <c r="Y26" s="38"/>
+      <c r="Z26" s="38"/>
       <c r="AA26" s="8">
         <v>6473</v>
       </c>
@@ -2504,19 +2504,19 @@
       <c r="AC26" s="9">
         <v>6465</v>
       </c>
-      <c r="AD26" s="44"/>
+      <c r="AD26" s="59"/>
     </row>
     <row r="27" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>4</v>
       </c>
-      <c r="B27" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
+      <c r="B27" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
       <c r="G27" s="10">
         <v>6361</v>
       </c>
@@ -2526,17 +2526,17 @@
       <c r="I27" s="6">
         <v>6259</v>
       </c>
-      <c r="J27" s="45"/>
+      <c r="J27" s="60"/>
       <c r="K27">
         <v>4</v>
       </c>
-      <c r="L27" s="33" t="s">
+      <c r="L27" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="M27" s="34"/>
-      <c r="N27" s="34"/>
-      <c r="O27" s="34"/>
-      <c r="P27" s="34"/>
+      <c r="M27" s="50"/>
+      <c r="N27" s="50"/>
+      <c r="O27" s="50"/>
+      <c r="P27" s="50"/>
       <c r="Q27" s="10">
         <v>6349</v>
       </c>
@@ -2546,17 +2546,17 @@
       <c r="S27" s="6">
         <v>6189</v>
       </c>
-      <c r="T27" s="45"/>
+      <c r="T27" s="60"/>
       <c r="U27">
         <v>4</v>
       </c>
-      <c r="V27" s="61" t="s">
+      <c r="V27" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="W27" s="62"/>
-      <c r="X27" s="62"/>
-      <c r="Y27" s="62"/>
-      <c r="Z27" s="62"/>
+      <c r="W27" s="42"/>
+      <c r="X27" s="42"/>
+      <c r="Y27" s="42"/>
+      <c r="Z27" s="42"/>
       <c r="AA27" s="10">
         <v>6476</v>
       </c>
@@ -2566,60 +2566,60 @@
       <c r="AC27" s="12">
         <v>5494</v>
       </c>
-      <c r="AD27" s="45"/>
+      <c r="AD27" s="60"/>
     </row>
     <row r="28" spans="1:30" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="53" t="s">
+      <c r="B28" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="I28" s="54"/>
-      <c r="J28" s="55"/>
-      <c r="L28" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="M28" s="39"/>
-      <c r="N28" s="39"/>
-      <c r="O28" s="39"/>
-      <c r="P28" s="39"/>
-      <c r="Q28" s="40"/>
-      <c r="R28" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="S28" s="54"/>
-      <c r="T28" s="55"/>
-      <c r="V28" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="W28" s="39"/>
-      <c r="X28" s="39"/>
-      <c r="Y28" s="39"/>
-      <c r="Z28" s="39"/>
-      <c r="AA28" s="40"/>
-      <c r="AB28" s="53" t="s">
+      <c r="I28" s="62"/>
+      <c r="J28" s="63"/>
+      <c r="L28" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="M28" s="54"/>
+      <c r="N28" s="54"/>
+      <c r="O28" s="54"/>
+      <c r="P28" s="54"/>
+      <c r="Q28" s="55"/>
+      <c r="R28" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="S28" s="62"/>
+      <c r="T28" s="63"/>
+      <c r="V28" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="W28" s="54"/>
+      <c r="X28" s="54"/>
+      <c r="Y28" s="54"/>
+      <c r="Z28" s="54"/>
+      <c r="AA28" s="55"/>
+      <c r="AB28" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="AC28" s="54"/>
-      <c r="AD28" s="55"/>
+      <c r="AC28" s="62"/>
+      <c r="AD28" s="63"/>
     </row>
     <row r="29" spans="1:30" ht="16" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>1</v>
       </c>
-      <c r="B29" s="41" t="s">
+      <c r="B29" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
       <c r="G29" s="5">
         <v>6059</v>
       </c>
@@ -2629,19 +2629,19 @@
       <c r="I29" s="11">
         <v>6089</v>
       </c>
-      <c r="J29" s="43" t="s">
-        <v>44</v>
+      <c r="J29" s="58" t="s">
+        <v>40</v>
       </c>
       <c r="K29">
         <v>1</v>
       </c>
-      <c r="L29" s="46" t="s">
+      <c r="L29" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="M29" s="47"/>
-      <c r="N29" s="47"/>
-      <c r="O29" s="47"/>
-      <c r="P29" s="47"/>
+      <c r="M29" s="44"/>
+      <c r="N29" s="44"/>
+      <c r="O29" s="44"/>
+      <c r="P29" s="44"/>
       <c r="Q29" s="11">
         <v>6317</v>
       </c>
@@ -2651,19 +2651,19 @@
       <c r="S29" s="5">
         <v>4587</v>
       </c>
-      <c r="T29" s="43" t="s">
-        <v>44</v>
+      <c r="T29" s="58" t="s">
+        <v>40</v>
       </c>
       <c r="U29">
         <v>1</v>
       </c>
-      <c r="V29" s="63" t="s">
+      <c r="V29" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="W29" s="64"/>
-      <c r="X29" s="64"/>
-      <c r="Y29" s="64"/>
-      <c r="Z29" s="64"/>
+      <c r="W29" s="36"/>
+      <c r="X29" s="36"/>
+      <c r="Y29" s="36"/>
+      <c r="Z29" s="36"/>
       <c r="AA29" s="13">
         <v>6232</v>
       </c>
@@ -2673,21 +2673,21 @@
       <c r="AC29" s="13">
         <v>6194</v>
       </c>
-      <c r="AD29" s="43" t="s">
-        <v>44</v>
+      <c r="AD29" s="58" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>2</v>
       </c>
-      <c r="B30" s="48" t="s">
+      <c r="B30" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="49"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="49"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
       <c r="G30" s="8">
         <v>6092</v>
       </c>
@@ -2697,17 +2697,17 @@
       <c r="I30" s="4">
         <v>4763</v>
       </c>
-      <c r="J30" s="44"/>
+      <c r="J30" s="59"/>
       <c r="K30">
         <v>2</v>
       </c>
-      <c r="L30" s="29" t="s">
+      <c r="L30" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="M30" s="30"/>
-      <c r="N30" s="30"/>
-      <c r="O30" s="30"/>
-      <c r="P30" s="30"/>
+      <c r="M30" s="40"/>
+      <c r="N30" s="40"/>
+      <c r="O30" s="40"/>
+      <c r="P30" s="40"/>
       <c r="Q30" s="4">
         <v>5475</v>
       </c>
@@ -2717,17 +2717,17 @@
       <c r="S30" s="8">
         <v>6221</v>
       </c>
-      <c r="T30" s="44"/>
+      <c r="T30" s="59"/>
       <c r="U30">
         <v>2</v>
       </c>
-      <c r="V30" s="59" t="s">
+      <c r="V30" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="W30" s="60"/>
-      <c r="X30" s="60"/>
-      <c r="Y30" s="60"/>
-      <c r="Z30" s="60"/>
+      <c r="W30" s="38"/>
+      <c r="X30" s="38"/>
+      <c r="Y30" s="38"/>
+      <c r="Z30" s="38"/>
       <c r="AA30" s="9">
         <v>6181</v>
       </c>
@@ -2737,19 +2737,19 @@
       <c r="AC30" s="9">
         <v>6227</v>
       </c>
-      <c r="AD30" s="44"/>
+      <c r="AD30" s="59"/>
     </row>
     <row r="31" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>3</v>
       </c>
-      <c r="B31" s="48" t="s">
+      <c r="B31" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="49"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
       <c r="G31" s="8">
         <v>5932</v>
       </c>
@@ -2759,17 +2759,17 @@
       <c r="I31" s="4">
         <v>5914</v>
       </c>
-      <c r="J31" s="44"/>
+      <c r="J31" s="59"/>
       <c r="K31">
         <v>3</v>
       </c>
-      <c r="L31" s="29" t="s">
+      <c r="L31" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="M31" s="30"/>
-      <c r="N31" s="30"/>
-      <c r="O31" s="30"/>
-      <c r="P31" s="30"/>
+      <c r="M31" s="40"/>
+      <c r="N31" s="40"/>
+      <c r="O31" s="40"/>
+      <c r="P31" s="40"/>
       <c r="Q31" s="4">
         <v>6094</v>
       </c>
@@ -2779,17 +2779,17 @@
       <c r="S31" s="4">
         <v>6142</v>
       </c>
-      <c r="T31" s="44"/>
+      <c r="T31" s="59"/>
       <c r="U31">
         <v>3</v>
       </c>
-      <c r="V31" s="59" t="s">
+      <c r="V31" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="W31" s="60"/>
-      <c r="X31" s="60"/>
-      <c r="Y31" s="60"/>
-      <c r="Z31" s="60"/>
+      <c r="W31" s="38"/>
+      <c r="X31" s="38"/>
+      <c r="Y31" s="38"/>
+      <c r="Z31" s="38"/>
       <c r="AA31" s="9">
         <v>5452</v>
       </c>
@@ -2799,19 +2799,19 @@
       <c r="AC31" s="8">
         <v>6086</v>
       </c>
-      <c r="AD31" s="44"/>
+      <c r="AD31" s="59"/>
     </row>
     <row r="32" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>4</v>
       </c>
-      <c r="B32" s="31" t="s">
+      <c r="B32" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="48"/>
       <c r="G32" s="6">
         <v>4850</v>
       </c>
@@ -2821,17 +2821,17 @@
       <c r="I32" s="6">
         <v>6036</v>
       </c>
-      <c r="J32" s="45"/>
+      <c r="J32" s="60"/>
       <c r="K32">
         <v>4</v>
       </c>
-      <c r="L32" s="33" t="s">
+      <c r="L32" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="M32" s="34"/>
-      <c r="N32" s="34"/>
-      <c r="O32" s="34"/>
-      <c r="P32" s="34"/>
+      <c r="M32" s="50"/>
+      <c r="N32" s="50"/>
+      <c r="O32" s="50"/>
+      <c r="P32" s="50"/>
       <c r="Q32" s="10">
         <v>6254</v>
       </c>
@@ -2841,17 +2841,17 @@
       <c r="S32" s="6">
         <v>4701</v>
       </c>
-      <c r="T32" s="45"/>
+      <c r="T32" s="60"/>
       <c r="U32">
         <v>4</v>
       </c>
-      <c r="V32" s="61" t="s">
+      <c r="V32" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="W32" s="62"/>
-      <c r="X32" s="62"/>
-      <c r="Y32" s="62"/>
-      <c r="Z32" s="62"/>
+      <c r="W32" s="42"/>
+      <c r="X32" s="42"/>
+      <c r="Y32" s="42"/>
+      <c r="Z32" s="42"/>
       <c r="AA32" s="12">
         <v>6292</v>
       </c>
@@ -2861,60 +2861,60 @@
       <c r="AC32" s="12">
         <v>5330</v>
       </c>
-      <c r="AD32" s="45"/>
+      <c r="AD32" s="60"/>
     </row>
     <row r="33" spans="1:30" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="50" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="51"/>
-      <c r="F33" s="51"/>
-      <c r="G33" s="52"/>
-      <c r="H33" s="53" t="s">
+      <c r="B33" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="71"/>
+      <c r="D33" s="71"/>
+      <c r="E33" s="71"/>
+      <c r="F33" s="71"/>
+      <c r="G33" s="72"/>
+      <c r="H33" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="I33" s="54"/>
-      <c r="J33" s="55"/>
-      <c r="L33" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="M33" s="39"/>
-      <c r="N33" s="39"/>
-      <c r="O33" s="39"/>
-      <c r="P33" s="39"/>
-      <c r="Q33" s="40"/>
-      <c r="R33" s="56" t="s">
+      <c r="I33" s="62"/>
+      <c r="J33" s="63"/>
+      <c r="L33" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="M33" s="54"/>
+      <c r="N33" s="54"/>
+      <c r="O33" s="54"/>
+      <c r="P33" s="54"/>
+      <c r="Q33" s="55"/>
+      <c r="R33" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="S33" s="57"/>
-      <c r="T33" s="58"/>
-      <c r="V33" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="W33" s="39"/>
-      <c r="X33" s="39"/>
-      <c r="Y33" s="39"/>
-      <c r="Z33" s="39"/>
-      <c r="AA33" s="40"/>
-      <c r="AB33" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC33" s="54"/>
-      <c r="AD33" s="55"/>
+      <c r="S33" s="74"/>
+      <c r="T33" s="75"/>
+      <c r="V33" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="W33" s="54"/>
+      <c r="X33" s="54"/>
+      <c r="Y33" s="54"/>
+      <c r="Z33" s="54"/>
+      <c r="AA33" s="55"/>
+      <c r="AB33" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC33" s="62"/>
+      <c r="AD33" s="63"/>
     </row>
     <row r="34" spans="1:30" ht="16" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>1</v>
       </c>
-      <c r="B34" s="41" t="s">
+      <c r="B34" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="42"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="42"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="57"/>
       <c r="G34" s="5">
         <v>6220</v>
       </c>
@@ -2924,19 +2924,19 @@
       <c r="I34" s="11">
         <v>6301</v>
       </c>
-      <c r="J34" s="43" t="s">
-        <v>44</v>
+      <c r="J34" s="58" t="s">
+        <v>40</v>
       </c>
       <c r="K34">
         <v>1</v>
       </c>
-      <c r="L34" s="46" t="s">
+      <c r="L34" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="M34" s="47"/>
-      <c r="N34" s="47"/>
-      <c r="O34" s="47"/>
-      <c r="P34" s="47"/>
+      <c r="M34" s="44"/>
+      <c r="N34" s="44"/>
+      <c r="O34" s="44"/>
+      <c r="P34" s="44"/>
       <c r="Q34" s="11">
         <v>7034</v>
       </c>
@@ -2946,19 +2946,19 @@
       <c r="S34" s="5">
         <v>6637</v>
       </c>
-      <c r="T34" s="43" t="s">
-        <v>44</v>
+      <c r="T34" s="58" t="s">
+        <v>40</v>
       </c>
       <c r="U34">
         <v>1</v>
       </c>
-      <c r="V34" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="W34" s="47"/>
-      <c r="X34" s="47"/>
-      <c r="Y34" s="47"/>
-      <c r="Z34" s="47"/>
+      <c r="V34" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="W34" s="44"/>
+      <c r="X34" s="44"/>
+      <c r="Y34" s="44"/>
+      <c r="Z34" s="44"/>
       <c r="AA34" s="13">
         <v>6245</v>
       </c>
@@ -2968,21 +2968,21 @@
       <c r="AC34" s="13">
         <v>6229</v>
       </c>
-      <c r="AD34" s="43" t="s">
-        <v>44</v>
+      <c r="AD34" s="58" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>2</v>
       </c>
-      <c r="B35" s="48" t="s">
+      <c r="B35" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46"/>
       <c r="G35" s="4">
         <v>6150</v>
       </c>
@@ -2992,17 +2992,17 @@
       <c r="I35" s="8">
         <v>6254</v>
       </c>
-      <c r="J35" s="44"/>
+      <c r="J35" s="59"/>
       <c r="K35">
         <v>2</v>
       </c>
-      <c r="L35" s="29" t="s">
+      <c r="L35" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="M35" s="30"/>
-      <c r="N35" s="30"/>
-      <c r="O35" s="30"/>
-      <c r="P35" s="30"/>
+      <c r="M35" s="40"/>
+      <c r="N35" s="40"/>
+      <c r="O35" s="40"/>
+      <c r="P35" s="40"/>
       <c r="Q35" s="4">
         <v>5242</v>
       </c>
@@ -3012,17 +3012,17 @@
       <c r="S35" s="8">
         <v>7161</v>
       </c>
-      <c r="T35" s="44"/>
+      <c r="T35" s="59"/>
       <c r="U35">
         <v>2</v>
       </c>
-      <c r="V35" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="W35" s="30"/>
-      <c r="X35" s="30"/>
-      <c r="Y35" s="30"/>
-      <c r="Z35" s="30"/>
+      <c r="V35" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="W35" s="40"/>
+      <c r="X35" s="40"/>
+      <c r="Y35" s="40"/>
+      <c r="Z35" s="40"/>
       <c r="AA35" s="9">
         <v>6292</v>
       </c>
@@ -3032,19 +3032,19 @@
       <c r="AC35" s="9">
         <v>6273</v>
       </c>
-      <c r="AD35" s="44"/>
+      <c r="AD35" s="59"/>
     </row>
     <row r="36" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>3</v>
       </c>
-      <c r="B36" s="48" t="s">
+      <c r="B36" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="49"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="49"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="46"/>
       <c r="G36" s="8">
         <v>6390</v>
       </c>
@@ -3054,17 +3054,17 @@
       <c r="I36" s="4">
         <v>6208</v>
       </c>
-      <c r="J36" s="44"/>
+      <c r="J36" s="59"/>
       <c r="K36">
         <v>3</v>
       </c>
-      <c r="L36" s="29" t="s">
+      <c r="L36" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="M36" s="30"/>
-      <c r="N36" s="30"/>
-      <c r="O36" s="30"/>
-      <c r="P36" s="30"/>
+      <c r="M36" s="40"/>
+      <c r="N36" s="40"/>
+      <c r="O36" s="40"/>
+      <c r="P36" s="40"/>
       <c r="Q36" s="4">
         <v>6870</v>
       </c>
@@ -3074,17 +3074,17 @@
       <c r="S36" s="8">
         <v>7128</v>
       </c>
-      <c r="T36" s="44"/>
+      <c r="T36" s="59"/>
       <c r="U36">
         <v>3</v>
       </c>
-      <c r="V36" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="W36" s="30"/>
-      <c r="X36" s="30"/>
-      <c r="Y36" s="30"/>
-      <c r="Z36" s="30"/>
+      <c r="V36" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="W36" s="40"/>
+      <c r="X36" s="40"/>
+      <c r="Y36" s="40"/>
+      <c r="Z36" s="40"/>
       <c r="AA36" s="9">
         <v>6158</v>
       </c>
@@ -3094,19 +3094,19 @@
       <c r="AC36" s="9">
         <v>6331</v>
       </c>
-      <c r="AD36" s="44"/>
+      <c r="AD36" s="59"/>
     </row>
     <row r="37" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>4</v>
       </c>
-      <c r="B37" s="31" t="s">
+      <c r="B37" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="48"/>
       <c r="G37" s="6">
         <v>4712</v>
       </c>
@@ -3116,17 +3116,17 @@
       <c r="I37" s="6">
         <v>6277</v>
       </c>
-      <c r="J37" s="45"/>
+      <c r="J37" s="60"/>
       <c r="K37">
         <v>4</v>
       </c>
-      <c r="L37" s="33" t="s">
+      <c r="L37" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="M37" s="34"/>
-      <c r="N37" s="34"/>
-      <c r="O37" s="34"/>
-      <c r="P37" s="34"/>
+      <c r="M37" s="50"/>
+      <c r="N37" s="50"/>
+      <c r="O37" s="50"/>
+      <c r="P37" s="50"/>
       <c r="Q37" s="10">
         <v>7016</v>
       </c>
@@ -3136,17 +3136,17 @@
       <c r="S37" s="6">
         <v>6991</v>
       </c>
-      <c r="T37" s="45"/>
+      <c r="T37" s="60"/>
       <c r="U37">
         <v>4</v>
       </c>
-      <c r="V37" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="W37" s="30"/>
-      <c r="X37" s="30"/>
-      <c r="Y37" s="30"/>
-      <c r="Z37" s="30"/>
+      <c r="V37" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="W37" s="40"/>
+      <c r="X37" s="40"/>
+      <c r="Y37" s="40"/>
+      <c r="Z37" s="40"/>
       <c r="AA37" s="12">
         <v>5301</v>
       </c>
@@ -3156,55 +3156,55 @@
       <c r="AC37" s="10">
         <v>6273</v>
       </c>
-      <c r="AD37" s="45"/>
+      <c r="AD37" s="60"/>
     </row>
     <row r="38" spans="1:30" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="35" t="s">
+      <c r="B38" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" s="68"/>
+      <c r="D38" s="68"/>
+      <c r="E38" s="68"/>
+      <c r="F38" s="68"/>
+      <c r="G38" s="69"/>
+      <c r="H38" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="I38" s="65"/>
+      <c r="J38" s="66"/>
+      <c r="L38" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="M38" s="54"/>
+      <c r="N38" s="54"/>
+      <c r="O38" s="54"/>
+      <c r="P38" s="54"/>
+      <c r="Q38" s="55"/>
+      <c r="R38" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="C38" s="36"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="I38" s="27"/>
-      <c r="J38" s="28"/>
-      <c r="L38" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="M38" s="39"/>
-      <c r="N38" s="39"/>
-      <c r="O38" s="39"/>
-      <c r="P38" s="39"/>
-      <c r="Q38" s="40"/>
-      <c r="R38" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="S38" s="27"/>
-      <c r="T38" s="28"/>
-      <c r="V38" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="W38" s="39"/>
-      <c r="X38" s="39"/>
-      <c r="Y38" s="39"/>
-      <c r="Z38" s="39"/>
-      <c r="AA38" s="40"/>
-      <c r="AB38" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC38" s="27"/>
-      <c r="AD38" s="28"/>
+      <c r="S38" s="65"/>
+      <c r="T38" s="66"/>
+      <c r="V38" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="W38" s="54"/>
+      <c r="X38" s="54"/>
+      <c r="Y38" s="54"/>
+      <c r="Z38" s="54"/>
+      <c r="AA38" s="55"/>
+      <c r="AB38" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC38" s="65"/>
+      <c r="AD38" s="66"/>
     </row>
     <row r="39" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B39" s="1"/>
     </row>
     <row r="40" spans="1:30" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B40" s="20" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C40" s="19"/>
       <c r="D40" s="19"/>
@@ -3218,7 +3218,7 @@
     </row>
     <row r="41" spans="1:30" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B41" s="18" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C41" s="19"/>
       <c r="D41" s="19"/>
@@ -3235,7 +3235,7 @@
     </row>
     <row r="43" spans="1:30" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B43" s="21" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C43" s="19"/>
       <c r="D43" s="19"/>
@@ -3249,7 +3249,7 @@
     </row>
     <row r="44" spans="1:30" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B44" s="19" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C44" s="19"/>
       <c r="D44" s="19"/>
@@ -3263,6 +3263,111 @@
     </row>
   </sheetData>
   <mergeCells count="129">
+    <mergeCell ref="AD9:AD12"/>
+    <mergeCell ref="AD14:AD17"/>
+    <mergeCell ref="AD19:AD22"/>
+    <mergeCell ref="AD24:AD27"/>
+    <mergeCell ref="AD29:AD32"/>
+    <mergeCell ref="V38:AA38"/>
+    <mergeCell ref="AB13:AD13"/>
+    <mergeCell ref="AB18:AD18"/>
+    <mergeCell ref="AB23:AD23"/>
+    <mergeCell ref="AB28:AD28"/>
+    <mergeCell ref="AB33:AD33"/>
+    <mergeCell ref="AB38:AD38"/>
+    <mergeCell ref="AD34:AD37"/>
+    <mergeCell ref="V37:Z37"/>
+    <mergeCell ref="V26:Z26"/>
+    <mergeCell ref="V27:Z27"/>
+    <mergeCell ref="V29:Z29"/>
+    <mergeCell ref="T24:T27"/>
+    <mergeCell ref="T29:T32"/>
+    <mergeCell ref="T34:T37"/>
+    <mergeCell ref="V13:AA13"/>
+    <mergeCell ref="V18:AA18"/>
+    <mergeCell ref="V23:AA23"/>
+    <mergeCell ref="V28:AA28"/>
+    <mergeCell ref="V33:AA33"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="R13:T13"/>
+    <mergeCell ref="R18:T18"/>
+    <mergeCell ref="R23:T23"/>
+    <mergeCell ref="R28:T28"/>
+    <mergeCell ref="R33:T33"/>
+    <mergeCell ref="R38:T38"/>
+    <mergeCell ref="J14:J17"/>
+    <mergeCell ref="J19:J22"/>
+    <mergeCell ref="J24:J27"/>
+    <mergeCell ref="J29:J32"/>
+    <mergeCell ref="J34:J37"/>
+    <mergeCell ref="T14:T17"/>
+    <mergeCell ref="T19:T22"/>
+    <mergeCell ref="L38:Q38"/>
+    <mergeCell ref="L13:Q13"/>
+    <mergeCell ref="L23:Q23"/>
+    <mergeCell ref="L28:Q28"/>
+    <mergeCell ref="L33:Q33"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="J9:J12"/>
+    <mergeCell ref="T9:T12"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="L9:P9"/>
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="L11:P11"/>
+    <mergeCell ref="L12:P12"/>
+    <mergeCell ref="L14:P14"/>
+    <mergeCell ref="L15:P15"/>
+    <mergeCell ref="L16:P16"/>
+    <mergeCell ref="L17:P17"/>
+    <mergeCell ref="L19:P19"/>
+    <mergeCell ref="L18:P18"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="L34:P34"/>
+    <mergeCell ref="L20:P20"/>
+    <mergeCell ref="L21:P21"/>
+    <mergeCell ref="L22:P22"/>
+    <mergeCell ref="L24:P24"/>
+    <mergeCell ref="L25:P25"/>
+    <mergeCell ref="L26:P26"/>
+    <mergeCell ref="L27:P27"/>
+    <mergeCell ref="L29:P29"/>
+    <mergeCell ref="L30:P30"/>
+    <mergeCell ref="L31:P31"/>
+    <mergeCell ref="L32:P32"/>
+    <mergeCell ref="L37:P37"/>
     <mergeCell ref="V8:Z8"/>
     <mergeCell ref="V9:Z9"/>
     <mergeCell ref="V10:Z10"/>
@@ -3287,111 +3392,6 @@
     <mergeCell ref="V36:Z36"/>
     <mergeCell ref="V24:Z24"/>
     <mergeCell ref="V25:Z25"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="L34:P34"/>
-    <mergeCell ref="L20:P20"/>
-    <mergeCell ref="L21:P21"/>
-    <mergeCell ref="L22:P22"/>
-    <mergeCell ref="L24:P24"/>
-    <mergeCell ref="L25:P25"/>
-    <mergeCell ref="L26:P26"/>
-    <mergeCell ref="L27:P27"/>
-    <mergeCell ref="L29:P29"/>
-    <mergeCell ref="L30:P30"/>
-    <mergeCell ref="L31:P31"/>
-    <mergeCell ref="L32:P32"/>
-    <mergeCell ref="L37:P37"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="J9:J12"/>
-    <mergeCell ref="T9:T12"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="L9:P9"/>
-    <mergeCell ref="L10:P10"/>
-    <mergeCell ref="L11:P11"/>
-    <mergeCell ref="L12:P12"/>
-    <mergeCell ref="L14:P14"/>
-    <mergeCell ref="L15:P15"/>
-    <mergeCell ref="L16:P16"/>
-    <mergeCell ref="L17:P17"/>
-    <mergeCell ref="L19:P19"/>
-    <mergeCell ref="L18:P18"/>
-    <mergeCell ref="L38:Q38"/>
-    <mergeCell ref="L13:Q13"/>
-    <mergeCell ref="L23:Q23"/>
-    <mergeCell ref="L28:Q28"/>
-    <mergeCell ref="L33:Q33"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="T24:T27"/>
-    <mergeCell ref="T29:T32"/>
-    <mergeCell ref="T34:T37"/>
-    <mergeCell ref="V13:AA13"/>
-    <mergeCell ref="V18:AA18"/>
-    <mergeCell ref="V23:AA23"/>
-    <mergeCell ref="V28:AA28"/>
-    <mergeCell ref="V33:AA33"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="R13:T13"/>
-    <mergeCell ref="R18:T18"/>
-    <mergeCell ref="R23:T23"/>
-    <mergeCell ref="R28:T28"/>
-    <mergeCell ref="R33:T33"/>
-    <mergeCell ref="R38:T38"/>
-    <mergeCell ref="J14:J17"/>
-    <mergeCell ref="J19:J22"/>
-    <mergeCell ref="J24:J27"/>
-    <mergeCell ref="J29:J32"/>
-    <mergeCell ref="J34:J37"/>
-    <mergeCell ref="T14:T17"/>
-    <mergeCell ref="T19:T22"/>
-    <mergeCell ref="AD9:AD12"/>
-    <mergeCell ref="AD14:AD17"/>
-    <mergeCell ref="AD19:AD22"/>
-    <mergeCell ref="AD24:AD27"/>
-    <mergeCell ref="AD29:AD32"/>
-    <mergeCell ref="V38:AA38"/>
-    <mergeCell ref="AB13:AD13"/>
-    <mergeCell ref="AB18:AD18"/>
-    <mergeCell ref="AB23:AD23"/>
-    <mergeCell ref="AB28:AD28"/>
-    <mergeCell ref="AB33:AD33"/>
-    <mergeCell ref="AB38:AD38"/>
-    <mergeCell ref="AD34:AD37"/>
-    <mergeCell ref="V37:Z37"/>
-    <mergeCell ref="V26:Z26"/>
-    <mergeCell ref="V27:Z27"/>
-    <mergeCell ref="V29:Z29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
